--- a/backend/src/excel_handler/files/LOMA.xlsx
+++ b/backend/src/excel_handler/files/LOMA.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B31"/>
+  <dimension ref="A1:B50"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,7 +436,7 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>16-12-2022</t>
+          <t>23-12-2022</t>
         </is>
       </c>
     </row>
@@ -447,7 +447,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>5673200.87</v>
+        <v>11515858.62</v>
       </c>
     </row>
     <row r="3">
@@ -457,7 +457,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>202614.32</v>
+        <v>245018.27</v>
       </c>
     </row>
     <row r="4">
@@ -467,7 +467,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>388827.03</v>
+        <v>375194.78</v>
       </c>
     </row>
     <row r="5">
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>160670.88</v>
+        <v>160714.79</v>
       </c>
     </row>
     <row r="6">
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>147925.11</v>
+        <v>147865.48</v>
       </c>
     </row>
     <row r="7">
@@ -497,7 +497,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>297735.96</v>
+        <v>268110.89</v>
       </c>
     </row>
     <row r="8">
@@ -507,7 +507,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1142905.01</v>
+        <v>1142138.6</v>
       </c>
     </row>
     <row r="9">
@@ -517,7 +517,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>420985.98</v>
+        <v>420582.84</v>
       </c>
     </row>
     <row r="10">
@@ -527,7 +527,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>248273.32</v>
+        <v>245397.63</v>
       </c>
     </row>
     <row r="11">
@@ -537,7 +537,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>208747.24</v>
+        <v>208445.67</v>
       </c>
     </row>
     <row r="12">
@@ -547,7 +547,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>175046.9</v>
+        <v>168992.71</v>
       </c>
     </row>
     <row r="13">
@@ -557,7 +557,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>300363.3</v>
+        <v>300722.09</v>
       </c>
     </row>
     <row r="14">
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>116996.76</v>
+        <v>116829.05</v>
       </c>
     </row>
     <row r="15">
@@ -577,7 +577,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>576587.3100000001</v>
+        <v>576450.16</v>
       </c>
     </row>
     <row r="16">
@@ -587,7 +587,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>82883.78</v>
+        <v>82822.47</v>
       </c>
     </row>
     <row r="17">
@@ -597,7 +597,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>223330.71</v>
+        <v>205956.38</v>
       </c>
     </row>
     <row r="18">
@@ -607,7 +607,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>237417.27</v>
+        <v>219128.01</v>
       </c>
     </row>
     <row r="19">
@@ -617,7 +617,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>84948.8</v>
+        <v>84890.89</v>
       </c>
     </row>
     <row r="20">
@@ -627,7 +627,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>129452.19</v>
+        <v>129457.56</v>
       </c>
     </row>
     <row r="21">
@@ -637,7 +637,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>60640.74</v>
+        <v>60619.82</v>
       </c>
     </row>
     <row r="22">
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>33937.8</v>
+        <v>36669.3</v>
       </c>
     </row>
     <row r="23">
@@ -657,7 +657,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>58122.18</v>
+        <v>58164.08</v>
       </c>
     </row>
     <row r="24">
@@ -667,7 +667,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>86391.46000000001</v>
+        <v>69318.16</v>
       </c>
     </row>
     <row r="25">
@@ -677,7 +677,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>65146.05</v>
+        <v>76559.50999999999</v>
       </c>
     </row>
     <row r="26">
@@ -687,7 +687,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>40321.26</v>
+        <v>40348.81</v>
       </c>
     </row>
     <row r="27">
@@ -697,7 +697,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>13007.46</v>
+        <v>12984.7</v>
       </c>
     </row>
     <row r="28">
@@ -707,7 +707,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>294720.69</v>
+        <v>92593.89</v>
       </c>
     </row>
     <row r="29">
@@ -717,7 +717,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>39980.46</v>
+        <v>40011.91</v>
       </c>
     </row>
     <row r="30">
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>2799.29</v>
+        <v>2803.43</v>
       </c>
     </row>
     <row r="31">
@@ -737,7 +737,197 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>35035.93</v>
+        <v>35023.12</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="inlineStr">
+        <is>
+          <t>Delta acciones</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>75371.61</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="inlineStr">
+        <is>
+          <t>Delta inter</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>2495.57</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="inlineStr">
+        <is>
+          <t>Delta Latam</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>8199.68</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="inlineStr">
+        <is>
+          <t>Delta Recursos</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>34983.86</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="inlineStr">
+        <is>
+          <t>Delta Select</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>441747.82</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="inlineStr">
+        <is>
+          <t>Lombardi</t>
+        </is>
+      </c>
+      <c r="B37" t="n">
+        <v>44292.83</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="inlineStr">
+        <is>
+          <t>MAF</t>
+        </is>
+      </c>
+      <c r="B38" t="n">
+        <v>79680.74000000001</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="inlineStr">
+        <is>
+          <t>Superfondo</t>
+        </is>
+      </c>
+      <c r="B39" t="n">
+        <v>17486.22</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="inlineStr">
+        <is>
+          <t>Alpha renta balan global</t>
+        </is>
+      </c>
+      <c r="B40" t="n">
+        <v>279966.21</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="inlineStr">
+        <is>
+          <t>Delta gestion V</t>
+        </is>
+      </c>
+      <c r="B41" t="n">
+        <v>106147.08</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="inlineStr">
+        <is>
+          <t>Toronto trust Argy</t>
+        </is>
+      </c>
+      <c r="B42" t="n">
+        <v>40110.97</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="inlineStr">
+        <is>
+          <t>Arpenta ex Mercosur</t>
+        </is>
+      </c>
+      <c r="B43" t="n">
+        <v>1979.36</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="inlineStr">
+        <is>
+          <t>Arpenta acciones</t>
+        </is>
+      </c>
+      <c r="B44" t="n">
+        <v>2993.19</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="inlineStr">
+        <is>
+          <t>Compass Crecim</t>
+        </is>
+      </c>
+      <c r="B45" t="n">
+        <v>1163987.76</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="inlineStr">
+        <is>
+          <t>Goal acciones plus</t>
+        </is>
+      </c>
+      <c r="B46" t="n">
+        <v>5309.65</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="inlineStr">
+        <is>
+          <t>Ieb Value</t>
+        </is>
+      </c>
+      <c r="B47" t="n">
+        <v>2803.43</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="inlineStr">
+        <is>
+          <t>Schroeder RV</t>
+        </is>
+      </c>
+      <c r="B48" t="n">
+        <v>1210600.95</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="inlineStr">
+        <is>
+          <t>Supefondo RV</t>
+        </is>
+      </c>
+      <c r="B49" t="n">
+        <v>617702.6899999999</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="inlineStr">
+        <is>
+          <t>Galileo</t>
+        </is>
+      </c>
+      <c r="B50" t="n">
+        <v>2001202.27</v>
       </c>
     </row>
   </sheetData>

--- a/backend/src/excel_handler/files/LOMA.xlsx
+++ b/backend/src/excel_handler/files/LOMA.xlsx
@@ -813,7 +813,7 @@
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t>Superfondo</t>
+          <t xml:space="preserve">Superfondo </t>
         </is>
       </c>
       <c r="B39" t="n">

--- a/backend/src/excel_handler/files/LOMA.xlsx
+++ b/backend/src/excel_handler/files/LOMA.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B50"/>
+  <dimension ref="A1:C49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,498 +436,635 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>23-12-2022</t>
+          <t>30-12-2022</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>06-01-2023</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>total</t>
+          <t>1810 Renta variable</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>11515858.62</v>
+        <v>88074.87</v>
+      </c>
+      <c r="C2" t="n">
+        <v>88171.49000000001</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>avg</t>
+          <t>1822 Raices Valores Negociables</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>245018.27</v>
+        <v>351528.09</v>
+      </c>
+      <c r="C3" t="n">
+        <v>338229.12</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>1822 Raices Valores Negociables</t>
+          <t>Adcap</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>375194.78</v>
+        <v>40313.35</v>
+      </c>
+      <c r="C4" t="n">
+        <v>40275.09</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>Alpha Acciones</t>
+          <t>Allaria Acciones</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>160714.79</v>
+        <v>58130.65</v>
+      </c>
+      <c r="C5" t="n">
+        <v>61513.47</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Alpha Mega</t>
+          <t>Alpha Acciones</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>147865.48</v>
+        <v>160469.73</v>
+      </c>
+      <c r="C6" t="n">
+        <v>160594.77</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>Balanz</t>
+          <t>Alpha Mega</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>268110.89</v>
+        <v>148169.9</v>
+      </c>
+      <c r="C7" t="n">
+        <v>147814.31</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Consultatio Acciones Argentina</t>
+          <t>Alpha renta balan global</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1142138.6</v>
+        <v>278833.68</v>
+      </c>
+      <c r="C8" t="n">
+        <v>279887.82</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>Consultatio Renta Variable</t>
+          <t>Argenfunds</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>420582.84</v>
+        <v>13001.49</v>
+      </c>
+      <c r="C9" t="n">
+        <v>12884.17</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Fima Acciones</t>
+          <t>Arpenta acciones</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>245397.63</v>
+        <v>2994.36</v>
+      </c>
+      <c r="C10" t="n">
+        <v>2995.62</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>Fima PB Acciones</t>
+          <t>Arpenta ex Mercosur</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>208445.67</v>
+        <v>1960.72</v>
+      </c>
+      <c r="C11" t="n">
+        <v>1979.47</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>HF Acciones Argentinas</t>
+          <t>Balanz</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>168992.71</v>
+        <v>250805.59</v>
+      </c>
+      <c r="C12" t="n">
+        <v>247792.75</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>HF Acciones Lideres</t>
+          <t>Compass Crecim</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>300722.09</v>
+        <v>1155073.38</v>
+      </c>
+      <c r="C13" t="n">
+        <v>1145282.22</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>Quinquela Acciones</t>
+          <t>Consultatio Acciones Argentina</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>116829.05</v>
+        <v>1142925.36</v>
+      </c>
+      <c r="C14" t="n">
+        <v>1141958.47</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>SBS Acciones Argentina</t>
+          <t>Consultatio Renta Variable</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>576450.16</v>
+        <v>420597.92</v>
+      </c>
+      <c r="C15" t="n">
+        <v>420944.4</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Rofex 20 Renta Variable</t>
+          <t>Delta Latam</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>82822.47</v>
+        <v>8195.51</v>
+      </c>
+      <c r="C16" t="n">
+        <v>8194.18</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>FBA Acciones Argentinas</t>
+          <t>Delta Recursos</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>205956.38</v>
+        <v>35021.4</v>
+      </c>
+      <c r="C17" t="n">
+        <v>34941.85</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>FBA Calificado</t>
+          <t>Delta Select</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>219128.01</v>
+        <v>442190.83</v>
+      </c>
+      <c r="C18" t="n">
+        <v>442216.7</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>Pellegrini Acciones</t>
+          <t>Delta acciones</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>84890.89</v>
+        <v>75333.41</v>
+      </c>
+      <c r="C19" t="n">
+        <v>75202.55</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>Pionero Acciones</t>
+          <t>Delta gestion V</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>129457.56</v>
+        <v>106400.71</v>
+      </c>
+      <c r="C20" t="n">
+        <v>106360.7</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>Toronto Trust Multimercado</t>
+          <t>Delta inter</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>60619.82</v>
+        <v>2501.66</v>
+      </c>
+      <c r="C21" t="n">
+        <v>2504.4</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>IAM Renta Variable</t>
+          <t>FBA Acciones Argentinas</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>36669.3</v>
+        <v>213902.22</v>
+      </c>
+      <c r="C22" t="n">
+        <v>234004.44</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>Allaria Acciones</t>
+          <t>FBA Calificado</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>58164.08</v>
+        <v>217773.39</v>
+      </c>
+      <c r="C23" t="n">
+        <v>230700.79</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>Premier Renta Variable</t>
+          <t>Fima Acciones</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>69318.16</v>
+        <v>245032.99</v>
+      </c>
+      <c r="C24" t="n">
+        <v>249184.42</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>1810 Renta variable</t>
+          <t>Fima PB Acciones</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>76559.50999999999</v>
+        <v>207837.42</v>
+      </c>
+      <c r="C25" t="n">
+        <v>206464.83</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>Adcap</t>
-        </is>
-      </c>
-      <c r="B26" t="n">
-        <v>40348.81</v>
+          <t>Galileo</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr"/>
+      <c r="C26" t="n">
+        <v>2073702.77</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>Argenfunds</t>
+          <t>Goal</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>12984.7</v>
+        <v>39996.87</v>
+      </c>
+      <c r="C27" t="n">
+        <v>40034.88</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>Gainvest</t>
+          <t>Goal acciones plus</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>92593.89</v>
+        <v>5303.88</v>
+      </c>
+      <c r="C28" t="n">
+        <v>5291.3</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>Goal</t>
+          <t>HF Acciones Argentinas</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>40011.91</v>
+        <v>162938.23</v>
+      </c>
+      <c r="C29" t="n">
+        <v>157899.35</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>IEB</t>
+          <t>HF Acciones Lideres</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>2803.43</v>
+        <v>300606.87</v>
+      </c>
+      <c r="C30" t="n">
+        <v>300647.63</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>Megainver</t>
+          <t>IAM Renta Variable</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>35023.12</v>
+        <v>38857.88</v>
+      </c>
+      <c r="C31" t="n">
+        <v>41744.48</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>Delta acciones</t>
+          <t>IEB</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>75371.61</v>
+        <v>2799.31</v>
+      </c>
+      <c r="C32" t="n">
+        <v>3896.97</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>Delta inter</t>
+          <t>Ieb Value</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>2495.57</v>
+        <v>2799.31</v>
+      </c>
+      <c r="C33" t="n">
+        <v>3896.97</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>Delta Latam</t>
+          <t>Lombardi</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>8199.68</v>
+        <v>37512.13</v>
+      </c>
+      <c r="C34" t="n">
+        <v>37560.76</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>Delta Recursos</t>
+          <t>MAF</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>34983.86</v>
+        <v>79754.02</v>
+      </c>
+      <c r="C35" t="n">
+        <v>79675.07000000001</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>Delta Select</t>
+          <t>Megainver</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>441747.82</v>
+        <v>35000.18</v>
+      </c>
+      <c r="C36" t="n">
+        <v>35003.74</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>Lombardi</t>
+          <t>Pellegrini Acciones</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>44292.83</v>
+        <v>85062.83</v>
+      </c>
+      <c r="C37" t="n">
+        <v>85115.45</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
         <is>
-          <t>MAF</t>
+          <t>Pionero Acciones</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>79680.74000000001</v>
+        <v>129462.91</v>
+      </c>
+      <c r="C38" t="n">
+        <v>129626.95</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">Superfondo </t>
+          <t>Premier Renta Variable</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>17486.22</v>
+        <v>69299.59</v>
+      </c>
+      <c r="C39" t="n">
+        <v>69373</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
         <is>
-          <t>Alpha renta balan global</t>
+          <t>Quinquela Acciones</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>279966.21</v>
+        <v>116979.31</v>
+      </c>
+      <c r="C40" t="n">
+        <v>117022.34</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
         <is>
-          <t>Delta gestion V</t>
+          <t>Rofex 20 Renta Variable</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>106147.08</v>
+        <v>82785.39</v>
+      </c>
+      <c r="C41" t="n">
+        <v>82812.8</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
         <is>
-          <t>Toronto trust Argy</t>
+          <t>SBS Acciones Argentina</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>40110.97</v>
+        <v>576470.14</v>
+      </c>
+      <c r="C42" t="n">
+        <v>576713.58</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
         <is>
-          <t>Arpenta ex Mercosur</t>
+          <t>Schroeder RV</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1979.36</v>
+        <v>1211900.54</v>
+      </c>
+      <c r="C43" t="n">
+        <v>1211874.1</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
         <is>
-          <t>Arpenta acciones</t>
+          <t>Supefondo RV</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2993.19</v>
+        <v>617699.71</v>
+      </c>
+      <c r="C44" t="n">
+        <v>615981.92</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
         <is>
-          <t>Compass Crecim</t>
+          <t xml:space="preserve">Superfondo </t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>1163987.76</v>
+        <v>17340.22</v>
+      </c>
+      <c r="C45" t="n">
+        <v>16264.35</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
         <is>
-          <t>Goal acciones plus</t>
+          <t>Toronto Trust Multimercado</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>5309.65</v>
+        <v>60651.29</v>
+      </c>
+      <c r="C46" t="n">
+        <v>60630.18</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
         <is>
-          <t>Ieb Value</t>
+          <t>Toronto trust Argy</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>2803.43</v>
+        <v>40087.74</v>
+      </c>
+      <c r="C47" t="n">
+        <v>40119.38</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
         <is>
-          <t>Schroeder RV</t>
+          <t>avg</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>1210600.95</v>
+        <v>208452.82</v>
+      </c>
+      <c r="C48" t="n">
+        <v>249238.83</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
         <is>
-          <t>Supefondo RV</t>
+          <t>total</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>617702.6899999999</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" s="1" t="inlineStr">
-        <is>
-          <t>Galileo</t>
-        </is>
-      </c>
-      <c r="B50" t="n">
-        <v>2001202.27</v>
+        <v>9380376.98</v>
+      </c>
+      <c r="C49" t="n">
+        <v>11464986</v>
       </c>
     </row>
   </sheetData>

--- a/backend/src/excel_handler/files/LOMA.xlsx
+++ b/backend/src/excel_handler/files/LOMA.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C49"/>
+  <dimension ref="A1:B50"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,11 +436,6 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>30-12-2022</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
           <t>06-01-2023</t>
         </is>
       </c>
@@ -448,623 +443,491 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>1810 Renta variable</t>
+          <t>total</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>88074.87</v>
-      </c>
-      <c r="C2" t="n">
-        <v>88171.49000000001</v>
+        <v>11479058.1</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>1822 Raices Valores Negociables</t>
+          <t>avg</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>351528.09</v>
-      </c>
-      <c r="C3" t="n">
-        <v>338229.12</v>
+        <v>244235.28</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Adcap</t>
+          <t>1810 Renta variable</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>40313.35</v>
-      </c>
-      <c r="C4" t="n">
-        <v>40275.09</v>
+        <v>88171.49000000001</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>Allaria Acciones</t>
+          <t>1822 Raices Valores Negociables</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>58130.65</v>
-      </c>
-      <c r="C5" t="n">
-        <v>61513.47</v>
+        <v>338229.12</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Alpha Acciones</t>
+          <t>Adcap IOL Acciones Argentina</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>160469.73</v>
-      </c>
-      <c r="C6" t="n">
-        <v>160594.77</v>
+        <v>40275.09</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>Alpha Mega</t>
+          <t>Allaria Acciones</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>148169.9</v>
-      </c>
-      <c r="C7" t="n">
-        <v>147814.31</v>
+        <v>61513.47</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Alpha renta balan global</t>
+          <t>Alpha Acciones</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>278833.68</v>
-      </c>
-      <c r="C8" t="n">
-        <v>279887.82</v>
+        <v>160594.77</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>Argenfunds</t>
+          <t>Alpha Latam</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>13001.49</v>
-      </c>
-      <c r="C9" t="n">
-        <v>12884.17</v>
+        <v>59.04</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Arpenta acciones</t>
+          <t>Alpha Mega</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>2994.36</v>
-      </c>
-      <c r="C10" t="n">
-        <v>2995.62</v>
+        <v>147814.31</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>Arpenta ex Mercosur</t>
+          <t>Alpha renta balan global</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1960.72</v>
-      </c>
-      <c r="C11" t="n">
-        <v>1979.47</v>
+        <v>279887.82</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Balanz</t>
+          <t>Argenfunds</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>250805.59</v>
-      </c>
-      <c r="C12" t="n">
-        <v>247792.75</v>
+        <v>12884.17</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>Compass Crecim</t>
+          <t>Arpenta acciones</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1155073.38</v>
-      </c>
-      <c r="C13" t="n">
-        <v>1145282.22</v>
+        <v>2995.62</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>Consultatio Acciones Argentina</t>
+          <t>Arpenta ex Mercosur</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1142925.36</v>
-      </c>
-      <c r="C14" t="n">
-        <v>1141958.47</v>
+        <v>1979.47</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>Consultatio Renta Variable</t>
+          <t>Balanz</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>420597.92</v>
-      </c>
-      <c r="C15" t="n">
-        <v>420944.4</v>
+        <v>247792.75</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Delta Latam</t>
+          <t>Compass Crecimiento</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>8195.51</v>
-      </c>
-      <c r="C16" t="n">
-        <v>8194.18</v>
+        <v>1145282.22</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>Delta Recursos</t>
+          <t>Compass Crecimiento II</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>35021.4</v>
-      </c>
-      <c r="C17" t="n">
-        <v>34941.85</v>
+        <v>17910.03</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>Delta Select</t>
+          <t>Consultatio Acciones Argentina</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>442190.83</v>
-      </c>
-      <c r="C18" t="n">
-        <v>442216.7</v>
+        <v>1141958.47</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>Delta acciones</t>
+          <t>Consultatio Renta Variable</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>75333.41</v>
-      </c>
-      <c r="C19" t="n">
-        <v>75202.55</v>
+        <v>420944.4</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>Delta gestion V</t>
+          <t>Delta Acciones</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>106400.71</v>
-      </c>
-      <c r="C20" t="n">
-        <v>106360.7</v>
+        <v>75202.55</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>Delta inter</t>
+          <t>Delta Internacional</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>2501.66</v>
-      </c>
-      <c r="C21" t="n">
         <v>2504.4</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>FBA Acciones Argentinas</t>
+          <t>Delta Latinoamerica</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>213902.22</v>
-      </c>
-      <c r="C22" t="n">
-        <v>234004.44</v>
+        <v>8194.18</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>FBA Calificado</t>
+          <t>Delta Recursos Naturales</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>217773.39</v>
-      </c>
-      <c r="C23" t="n">
-        <v>230700.79</v>
+        <v>34941.85</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>Fima Acciones</t>
+          <t>Delta Select</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>245032.99</v>
-      </c>
-      <c r="C24" t="n">
-        <v>249184.42</v>
+        <v>442216.7</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>Fima PB Acciones</t>
+          <t>Delta gestion V</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>207837.42</v>
-      </c>
-      <c r="C25" t="n">
-        <v>206464.83</v>
+        <v>106360.7</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>Galileo</t>
-        </is>
-      </c>
-      <c r="B26" t="inlineStr"/>
-      <c r="C26" t="n">
-        <v>2073702.77</v>
+          <t>FBA Acciones Argentinas</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>234004.44</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>Goal</t>
+          <t>FBA Calificado</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>39996.87</v>
-      </c>
-      <c r="C27" t="n">
-        <v>40034.88</v>
+        <v>230700.79</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>Goal acciones plus</t>
+          <t>Fima Acciones</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>5303.88</v>
-      </c>
-      <c r="C28" t="n">
-        <v>5291.3</v>
+        <v>249184.42</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>HF Acciones Argentinas</t>
+          <t>Fima PB Acciones</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>162938.23</v>
-      </c>
-      <c r="C29" t="n">
-        <v>157899.35</v>
+        <v>206464.83</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>HF Acciones Lideres</t>
+          <t>Galileo Acciones</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>300606.87</v>
-      </c>
-      <c r="C30" t="n">
-        <v>300647.63</v>
+        <v>2073702.77</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>IAM Renta Variable</t>
+          <t>Goal Acciones Argentinas</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>38857.88</v>
-      </c>
-      <c r="C31" t="n">
-        <v>41744.48</v>
+        <v>40034.88</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>IEB</t>
+          <t>Goal acciones plus</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2799.31</v>
-      </c>
-      <c r="C32" t="n">
-        <v>3896.97</v>
+        <v>5291.3</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>Ieb Value</t>
+          <t>HF Acciones Argentinas</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>2799.31</v>
-      </c>
-      <c r="C33" t="n">
-        <v>3896.97</v>
+        <v>157899.35</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>Lombardi</t>
+          <t>HF Acciones Lideres</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>37512.13</v>
-      </c>
-      <c r="C34" t="n">
-        <v>37560.76</v>
+        <v>300647.63</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>MAF</t>
+          <t>IAM Renta Variable</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>79754.02</v>
-      </c>
-      <c r="C35" t="n">
-        <v>79675.07000000001</v>
+        <v>41744.48</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>Megainver</t>
+          <t>IEB Value</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>35000.18</v>
-      </c>
-      <c r="C36" t="n">
-        <v>35003.74</v>
+        <v>3896.97</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>Pellegrini Acciones</t>
+          <t>Lombardi</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>85062.83</v>
-      </c>
-      <c r="C37" t="n">
-        <v>85115.45</v>
+        <v>37560.76</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
         <is>
-          <t>Pionero Acciones</t>
+          <t>MAF</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>129462.91</v>
-      </c>
-      <c r="C38" t="n">
-        <v>129626.95</v>
+        <v>79675.07000000001</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t>Premier Renta Variable</t>
+          <t>Megainver</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>69299.59</v>
-      </c>
-      <c r="C39" t="n">
-        <v>69373</v>
+        <v>35003.74</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
         <is>
-          <t>Quinquela Acciones</t>
+          <t>Pellegrini Acciones</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>116979.31</v>
-      </c>
-      <c r="C40" t="n">
-        <v>117022.34</v>
+        <v>85115.45</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
         <is>
-          <t>Rofex 20 Renta Variable</t>
+          <t>Pionero Acciones</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>82785.39</v>
-      </c>
-      <c r="C41" t="n">
-        <v>82812.8</v>
+        <v>129626.95</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
         <is>
-          <t>SBS Acciones Argentina</t>
+          <t>Premier Renta Variable</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>576470.14</v>
-      </c>
-      <c r="C42" t="n">
-        <v>576713.58</v>
+        <v>69373</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
         <is>
-          <t>Schroeder RV</t>
+          <t>Quinquela Acciones</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1211900.54</v>
-      </c>
-      <c r="C43" t="n">
-        <v>1211874.1</v>
+        <v>117022.34</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
         <is>
-          <t>Supefondo RV</t>
+          <t>Rofex 20 Renta Variable</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>617699.71</v>
-      </c>
-      <c r="C44" t="n">
-        <v>615981.92</v>
+        <v>82812.8</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">Superfondo </t>
+          <t>SBS Acciones Argentina</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>17340.22</v>
-      </c>
-      <c r="C45" t="n">
-        <v>16264.35</v>
+        <v>576713.58</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
         <is>
-          <t>Toronto Trust Multimercado</t>
+          <t>Schroeder RV</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>60651.29</v>
-      </c>
-      <c r="C46" t="n">
-        <v>60630.18</v>
+        <v>1211874.1</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
         <is>
-          <t>Toronto trust Argy</t>
+          <t>Supefondo RV</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>40087.74</v>
-      </c>
-      <c r="C47" t="n">
-        <v>40119.38</v>
+        <v>615981.92</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
         <is>
-          <t>avg</t>
+          <t xml:space="preserve">Superfondo </t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>208452.82</v>
-      </c>
-      <c r="C48" t="n">
-        <v>249238.83</v>
+        <v>16264.35</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
         <is>
-          <t>total</t>
+          <t>Toronto Trust Multimercado</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>9380376.98</v>
-      </c>
-      <c r="C49" t="n">
-        <v>11464986</v>
+        <v>60630.18</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="inlineStr">
+        <is>
+          <t>Toronto trust Argy</t>
+        </is>
+      </c>
+      <c r="B50" t="n">
+        <v>40119.38</v>
       </c>
     </row>
   </sheetData>

--- a/backend/src/excel_handler/files/LOMA.xlsx
+++ b/backend/src/excel_handler/files/LOMA.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B50"/>
+  <dimension ref="A1:C50"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -439,495 +439,623 @@
           <t>06-01-2023</t>
         </is>
       </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>13-01-2023</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>total</t>
+          <t>1810 Renta variable</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>11479058.1</v>
+        <v>88171.49000000001</v>
+      </c>
+      <c r="C2" t="n">
+        <v>87857.10000000001</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>avg</t>
+          <t>1822 Raices Valores Negociables</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>244235.28</v>
+        <v>338229.12</v>
+      </c>
+      <c r="C3" t="n">
+        <v>355152.98</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>1810 Renta variable</t>
+          <t>Adcap IOL Acciones Argentina</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>88171.49000000001</v>
+        <v>40275.09</v>
+      </c>
+      <c r="C4" t="n">
+        <v>40345.22</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>1822 Raices Valores Negociables</t>
+          <t>Allaria Acciones</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>338229.12</v>
+        <v>61513.47</v>
+      </c>
+      <c r="C5" t="n">
+        <v>61431.38</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Adcap IOL Acciones Argentina</t>
+          <t>Alpha Acciones</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>40275.09</v>
+        <v>160594.77</v>
+      </c>
+      <c r="C6" t="n">
+        <v>160738.57</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>Allaria Acciones</t>
+          <t>Alpha Latam</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>61513.47</v>
+        <v>59.04</v>
+      </c>
+      <c r="C7" t="n">
+        <v>56.35</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Alpha Acciones</t>
+          <t>Alpha Mega</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>160594.77</v>
+        <v>147814.31</v>
+      </c>
+      <c r="C8" t="n">
+        <v>148451.41</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>Alpha Latam</t>
+          <t>Alpha renta balan global</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>59.04</v>
+        <v>279887.82</v>
+      </c>
+      <c r="C9" t="n">
+        <v>279976.7</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Alpha Mega</t>
+          <t>Argenfunds</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>147814.31</v>
+        <v>12884.17</v>
+      </c>
+      <c r="C10" t="n">
+        <v>12891.26</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>Alpha renta balan global</t>
+          <t>Arpenta acciones</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>279887.82</v>
+        <v>2995.62</v>
+      </c>
+      <c r="C11" t="n">
+        <v>2993.91</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Argenfunds</t>
+          <t>Arpenta ex Mercosur</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>12884.17</v>
+        <v>1979.47</v>
+      </c>
+      <c r="C12" t="n">
+        <v>1978.28</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>Arpenta acciones</t>
+          <t>Balanz</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>2995.62</v>
+        <v>247792.75</v>
+      </c>
+      <c r="C13" t="n">
+        <v>160513.36</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>Arpenta ex Mercosur</t>
+          <t>Compass Crecimiento</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1979.47</v>
+        <v>1145282.22</v>
+      </c>
+      <c r="C14" t="n">
+        <v>1130374.27</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>Balanz</t>
+          <t>Compass Crecimiento II</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>247792.75</v>
+        <v>17910.03</v>
+      </c>
+      <c r="C15" t="n">
+        <v>17914.94</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Compass Crecimiento</t>
+          <t>Consultatio Acciones Argentina</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1145282.22</v>
-      </c>
+        <v>1141958.47</v>
+      </c>
+      <c r="C16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>Compass Crecimiento II</t>
+          <t>Consultatio Renta Variable</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>17910.03</v>
-      </c>
+        <v>420944.4</v>
+      </c>
+      <c r="C17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>Consultatio Acciones Argentina</t>
+          <t>Delta Acciones</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>1141958.47</v>
-      </c>
+        <v>75202.55</v>
+      </c>
+      <c r="C18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>Consultatio Renta Variable</t>
+          <t>Delta Internacional</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>420944.4</v>
-      </c>
+        <v>2504.4</v>
+      </c>
+      <c r="C19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>Delta Acciones</t>
+          <t>Delta Latinoamerica</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>75202.55</v>
-      </c>
+        <v>8194.18</v>
+      </c>
+      <c r="C20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>Delta Internacional</t>
+          <t>Delta Recursos Naturales</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>2504.4</v>
-      </c>
+        <v>34941.85</v>
+      </c>
+      <c r="C21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>Delta Latinoamerica</t>
+          <t>Delta Select</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>8194.18</v>
-      </c>
+        <v>442216.7</v>
+      </c>
+      <c r="C22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>Delta Recursos Naturales</t>
+          <t>Delta gestion V</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>34941.85</v>
-      </c>
+        <v>106360.7</v>
+      </c>
+      <c r="C23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>Delta Select</t>
+          <t>FBA Acciones Argentinas</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>442216.7</v>
-      </c>
+        <v>234004.44</v>
+      </c>
+      <c r="C24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>Delta gestion V</t>
+          <t>FBA Calificado</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>106360.7</v>
-      </c>
+        <v>230700.79</v>
+      </c>
+      <c r="C25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>FBA Acciones Argentinas</t>
+          <t>Fima Acciones</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>234004.44</v>
-      </c>
+        <v>249184.42</v>
+      </c>
+      <c r="C26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>FBA Calificado</t>
+          <t>Fima PB Acciones</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>230700.79</v>
+        <v>206464.83</v>
+      </c>
+      <c r="C27" t="n">
+        <v>216929.81</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>Fima Acciones</t>
+          <t>Galileo Acciones</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>249184.42</v>
+        <v>2073702.77</v>
+      </c>
+      <c r="C28" t="n">
+        <v>2149584.31</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>Fima PB Acciones</t>
+          <t>Goal Acciones Argentinas</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>206464.83</v>
+        <v>40034.88</v>
+      </c>
+      <c r="C29" t="n">
+        <v>39995.45</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>Galileo Acciones</t>
+          <t>Goal acciones plus</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>2073702.77</v>
+        <v>5291.3</v>
+      </c>
+      <c r="C30" t="n">
+        <v>5304.06</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>Goal Acciones Argentinas</t>
+          <t>HF Acciones Argentinas</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>40034.88</v>
+        <v>157899.35</v>
+      </c>
+      <c r="C31" t="n">
+        <v>158126.71</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>Goal acciones plus</t>
+          <t>HF Acciones Lideres</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>5291.3</v>
+        <v>300647.63</v>
+      </c>
+      <c r="C32" t="n">
+        <v>295801.43</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>HF Acciones Argentinas</t>
+          <t>IAM Renta Variable</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>157899.35</v>
+        <v>41744.48</v>
+      </c>
+      <c r="C33" t="n">
+        <v>43603.61</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>HF Acciones Lideres</t>
+          <t>IEB Value</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>300647.63</v>
+        <v>3896.97</v>
+      </c>
+      <c r="C34" t="n">
+        <v>3897.54</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>IAM Renta Variable</t>
+          <t>Lombardi</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>41744.48</v>
+        <v>37560.76</v>
+      </c>
+      <c r="C35" t="n">
+        <v>37467.97</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>IEB Value</t>
+          <t>MAF</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>3896.97</v>
+        <v>79675.07000000001</v>
+      </c>
+      <c r="C36" t="n">
+        <v>79731.38</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>Lombardi</t>
+          <t>Megainver</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>37560.76</v>
+        <v>35003.74</v>
+      </c>
+      <c r="C37" t="n">
+        <v>35010.68</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
         <is>
-          <t>MAF</t>
+          <t>Pellegrini Acciones</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>79675.07000000001</v>
-      </c>
+        <v>85115.45</v>
+      </c>
+      <c r="C38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t>Megainver</t>
+          <t>Pionero Acciones</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>35003.74</v>
+        <v>129626.95</v>
+      </c>
+      <c r="C39" t="n">
+        <v>129482.29</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
         <is>
-          <t>Pellegrini Acciones</t>
+          <t>Premier Renta Variable</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>85115.45</v>
+        <v>69373</v>
+      </c>
+      <c r="C40" t="n">
+        <v>69275.31</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
         <is>
-          <t>Pionero Acciones</t>
+          <t>Quinquela Acciones</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>129626.95</v>
+        <v>117022.34</v>
+      </c>
+      <c r="C41" t="n">
+        <v>116859.7</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
         <is>
-          <t>Premier Renta Variable</t>
+          <t>Rofex 20 Renta Variable</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>69373</v>
+        <v>82812.8</v>
+      </c>
+      <c r="C42" t="n">
+        <v>82783.25</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
         <is>
-          <t>Quinquela Acciones</t>
+          <t>SBS Acciones Argentina</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>117022.34</v>
+        <v>576713.58</v>
+      </c>
+      <c r="C43" t="n">
+        <v>576814.16</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
         <is>
-          <t>Rofex 20 Renta Variable</t>
+          <t>Schroeder RV</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>82812.8</v>
+        <v>1211874.1</v>
+      </c>
+      <c r="C44" t="n">
+        <v>1212773.08</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
         <is>
-          <t>SBS Acciones Argentina</t>
+          <t>Supefondo RV</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>576713.58</v>
+        <v>615981.92</v>
+      </c>
+      <c r="C45" t="n">
+        <v>617718.1</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
         <is>
-          <t>Schroeder RV</t>
+          <t xml:space="preserve">Superfondo </t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1211874.1</v>
+        <v>16264.35</v>
+      </c>
+      <c r="C46" t="n">
+        <v>17100.51</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
         <is>
-          <t>Supefondo RV</t>
+          <t>Toronto Trust Multimercado</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>615981.92</v>
+        <v>60630.18</v>
+      </c>
+      <c r="C47" t="n">
+        <v>60598.85</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">Superfondo </t>
+          <t>Toronto trust Argy</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>16264.35</v>
+        <v>40119.38</v>
+      </c>
+      <c r="C48" t="n">
+        <v>67655.60000000001</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
         <is>
-          <t>Toronto Trust Multimercado</t>
+          <t>avg</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>60630.18</v>
+        <v>244235.28</v>
+      </c>
+      <c r="C49" t="n">
+        <v>242205.42</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
         <is>
-          <t>Toronto trust Argy</t>
+          <t>total</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>40119.38</v>
+        <v>11479058.1</v>
+      </c>
+      <c r="C50" t="n">
+        <v>8477189.529999999</v>
       </c>
     </row>
   </sheetData>

--- a/backend/src/excel_handler/files/LOMA.xlsx
+++ b/backend/src/excel_handler/files/LOMA.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C50"/>
+  <dimension ref="A1:D50"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -444,6 +444,11 @@
           <t>13-01-2023</t>
         </is>
       </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>20-01-2023</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -457,6 +462,9 @@
       <c r="C2" t="n">
         <v>87857.10000000001</v>
       </c>
+      <c r="D2" t="n">
+        <v>124212.9</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -470,6 +478,9 @@
       <c r="C3" t="n">
         <v>355152.98</v>
       </c>
+      <c r="D3" t="n">
+        <v>354765.96</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -483,6 +494,9 @@
       <c r="C4" t="n">
         <v>40345.22</v>
       </c>
+      <c r="D4" t="n">
+        <v>40366</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -496,6 +510,9 @@
       <c r="C5" t="n">
         <v>61431.38</v>
       </c>
+      <c r="D5" t="n">
+        <v>63189.15</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -509,6 +526,9 @@
       <c r="C6" t="n">
         <v>160738.57</v>
       </c>
+      <c r="D6" t="n">
+        <v>160625.07</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -522,6 +542,9 @@
       <c r="C7" t="n">
         <v>56.35</v>
       </c>
+      <c r="D7" t="n">
+        <v>55.07</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -535,6 +558,9 @@
       <c r="C8" t="n">
         <v>148451.41</v>
       </c>
+      <c r="D8" t="n">
+        <v>157755.8</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -548,6 +574,9 @@
       <c r="C9" t="n">
         <v>279976.7</v>
       </c>
+      <c r="D9" t="n">
+        <v>279629.18</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -561,6 +590,9 @@
       <c r="C10" t="n">
         <v>12891.26</v>
       </c>
+      <c r="D10" t="n">
+        <v>12900.72</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -574,6 +606,9 @@
       <c r="C11" t="n">
         <v>2993.91</v>
       </c>
+      <c r="D11" t="n">
+        <v>2995.63</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -587,6 +622,9 @@
       <c r="C12" t="n">
         <v>1978.28</v>
       </c>
+      <c r="D12" t="n">
+        <v>1971.91</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
@@ -600,6 +638,9 @@
       <c r="C13" t="n">
         <v>160513.36</v>
       </c>
+      <c r="D13" t="n">
+        <v>174855.76</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
@@ -613,6 +654,9 @@
       <c r="C14" t="n">
         <v>1130374.27</v>
       </c>
+      <c r="D14" t="n">
+        <v>1130073.11</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
@@ -626,6 +670,9 @@
       <c r="C15" t="n">
         <v>17914.94</v>
       </c>
+      <c r="D15" t="n">
+        <v>17905.44</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
@@ -637,6 +684,9 @@
         <v>1141958.47</v>
       </c>
       <c r="C16" t="inlineStr"/>
+      <c r="D16" t="n">
+        <v>1142564.79</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
@@ -648,6 +698,9 @@
         <v>420944.4</v>
       </c>
       <c r="C17" t="inlineStr"/>
+      <c r="D17" t="n">
+        <v>372373.52</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
@@ -659,6 +712,9 @@
         <v>75202.55</v>
       </c>
       <c r="C18" t="inlineStr"/>
+      <c r="D18" t="n">
+        <v>69339.19</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
@@ -670,6 +726,9 @@
         <v>2504.4</v>
       </c>
       <c r="C19" t="inlineStr"/>
+      <c r="D19" t="n">
+        <v>2499.29</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
@@ -681,6 +740,9 @@
         <v>8194.18</v>
       </c>
       <c r="C20" t="inlineStr"/>
+      <c r="D20" t="n">
+        <v>8186.47</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
@@ -692,6 +754,9 @@
         <v>34941.85</v>
       </c>
       <c r="C21" t="inlineStr"/>
+      <c r="D21" t="n">
+        <v>31387.35</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
@@ -703,6 +768,9 @@
         <v>442216.7</v>
       </c>
       <c r="C22" t="inlineStr"/>
+      <c r="D22" t="n">
+        <v>416460.79</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
@@ -714,6 +782,9 @@
         <v>106360.7</v>
       </c>
       <c r="C23" t="inlineStr"/>
+      <c r="D23" t="n">
+        <v>106771.35</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
@@ -725,6 +796,9 @@
         <v>234004.44</v>
       </c>
       <c r="C24" t="inlineStr"/>
+      <c r="D24" t="n">
+        <v>247231.47</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
@@ -736,6 +810,9 @@
         <v>230700.79</v>
       </c>
       <c r="C25" t="inlineStr"/>
+      <c r="D25" t="n">
+        <v>249903.77</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
@@ -747,6 +824,9 @@
         <v>249184.42</v>
       </c>
       <c r="C26" t="inlineStr"/>
+      <c r="D26" t="n">
+        <v>222556.7</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
@@ -760,6 +840,9 @@
       <c r="C27" t="n">
         <v>216929.81</v>
       </c>
+      <c r="D27" t="n">
+        <v>223521.83</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
@@ -773,6 +856,9 @@
       <c r="C28" t="n">
         <v>2149584.31</v>
       </c>
+      <c r="D28" t="n">
+        <v>2149944.22</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
@@ -786,6 +872,9 @@
       <c r="C29" t="n">
         <v>39995.45</v>
       </c>
+      <c r="D29" t="n">
+        <v>40036.92</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
@@ -799,6 +888,9 @@
       <c r="C30" t="n">
         <v>5304.06</v>
       </c>
+      <c r="D30" t="n">
+        <v>5311.18</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
@@ -812,6 +904,9 @@
       <c r="C31" t="n">
         <v>158126.71</v>
       </c>
+      <c r="D31" t="n">
+        <v>153050.14</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
@@ -825,6 +920,9 @@
       <c r="C32" t="n">
         <v>295801.43</v>
       </c>
+      <c r="D32" t="n">
+        <v>250275.02</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
@@ -838,6 +936,9 @@
       <c r="C33" t="n">
         <v>43603.61</v>
       </c>
+      <c r="D33" t="n">
+        <v>56122.92</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
@@ -851,6 +952,9 @@
       <c r="C34" t="n">
         <v>3897.54</v>
       </c>
+      <c r="D34" t="n">
+        <v>4431.63</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
@@ -864,6 +968,9 @@
       <c r="C35" t="n">
         <v>37467.97</v>
       </c>
+      <c r="D35" t="n">
+        <v>37460.79</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
@@ -877,6 +984,9 @@
       <c r="C36" t="n">
         <v>79731.38</v>
       </c>
+      <c r="D36" t="n">
+        <v>79744.92999999999</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
@@ -890,6 +1000,9 @@
       <c r="C37" t="n">
         <v>35010.68</v>
       </c>
+      <c r="D37" t="n">
+        <v>34996.82</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
@@ -901,6 +1014,9 @@
         <v>85115.45</v>
       </c>
       <c r="C38" t="inlineStr"/>
+      <c r="D38" t="n">
+        <v>85134.83</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
@@ -914,6 +1030,9 @@
       <c r="C39" t="n">
         <v>129482.29</v>
       </c>
+      <c r="D39" t="n">
+        <v>129325.15</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
@@ -927,6 +1046,9 @@
       <c r="C40" t="n">
         <v>69275.31</v>
       </c>
+      <c r="D40" t="n">
+        <v>79302.22</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
@@ -940,6 +1062,9 @@
       <c r="C41" t="n">
         <v>116859.7</v>
       </c>
+      <c r="D41" t="n">
+        <v>116885.8</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
@@ -953,6 +1078,9 @@
       <c r="C42" t="n">
         <v>82783.25</v>
       </c>
+      <c r="D42" t="n">
+        <v>77949.88</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
@@ -966,6 +1094,9 @@
       <c r="C43" t="n">
         <v>576814.16</v>
       </c>
+      <c r="D43" t="n">
+        <v>576571.37</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
@@ -979,6 +1110,9 @@
       <c r="C44" t="n">
         <v>1212773.08</v>
       </c>
+      <c r="D44" t="n">
+        <v>1212059.14</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
@@ -992,6 +1126,9 @@
       <c r="C45" t="n">
         <v>617718.1</v>
       </c>
+      <c r="D45" t="n">
+        <v>615709.1899999999</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
@@ -1005,6 +1142,9 @@
       <c r="C46" t="n">
         <v>17100.51</v>
       </c>
+      <c r="D46" t="n">
+        <v>17097.36</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
@@ -1018,6 +1158,9 @@
       <c r="C47" t="n">
         <v>60598.85</v>
       </c>
+      <c r="D47" t="n">
+        <v>60618.95</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
@@ -1031,6 +1174,9 @@
       <c r="C48" t="n">
         <v>67655.60000000001</v>
       </c>
+      <c r="D48" t="n">
+        <v>80742.60000000001</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
@@ -1044,6 +1190,9 @@
       <c r="C49" t="n">
         <v>242205.42</v>
       </c>
+      <c r="D49" t="n">
+        <v>244188.71</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
@@ -1056,6 +1205,9 @@
       </c>
       <c r="C50" t="n">
         <v>8477189.529999999</v>
+      </c>
+      <c r="D50" t="n">
+        <v>11476869.28</v>
       </c>
     </row>
   </sheetData>

--- a/backend/src/excel_handler/files/LOMA.xlsx
+++ b/backend/src/excel_handler/files/LOMA.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D50"/>
+  <dimension ref="A1:E50"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -449,6 +449,11 @@
           <t>20-01-2023</t>
         </is>
       </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>27-01-2023</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -465,6 +470,9 @@
       <c r="D2" t="n">
         <v>124212.9</v>
       </c>
+      <c r="E2" t="n">
+        <v>124055.68</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -481,6 +489,9 @@
       <c r="D3" t="n">
         <v>354765.96</v>
       </c>
+      <c r="E3" t="n">
+        <v>367368.37</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -497,6 +508,9 @@
       <c r="D4" t="n">
         <v>40366</v>
       </c>
+      <c r="E4" t="n">
+        <v>49260.97</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -513,6 +527,9 @@
       <c r="D5" t="n">
         <v>63189.15</v>
       </c>
+      <c r="E5" t="n">
+        <v>63309.59</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -529,6 +546,9 @@
       <c r="D6" t="n">
         <v>160625.07</v>
       </c>
+      <c r="E6" t="n">
+        <v>160571.28</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -545,6 +565,9 @@
       <c r="D7" t="n">
         <v>55.07</v>
       </c>
+      <c r="E7" t="n">
+        <v>56.13</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -561,6 +584,9 @@
       <c r="D8" t="n">
         <v>157755.8</v>
       </c>
+      <c r="E8" t="n">
+        <v>157769.59</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -577,6 +603,9 @@
       <c r="D9" t="n">
         <v>279629.18</v>
       </c>
+      <c r="E9" t="n">
+        <v>280203.7</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -593,6 +622,9 @@
       <c r="D10" t="n">
         <v>12900.72</v>
       </c>
+      <c r="E10" t="n">
+        <v>12878.96</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -609,6 +641,9 @@
       <c r="D11" t="n">
         <v>2995.63</v>
       </c>
+      <c r="E11" t="n">
+        <v>2994.06</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -625,6 +660,9 @@
       <c r="D12" t="n">
         <v>1971.91</v>
       </c>
+      <c r="E12" t="n">
+        <v>1962.16</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
@@ -641,6 +679,9 @@
       <c r="D13" t="n">
         <v>174855.76</v>
       </c>
+      <c r="E13" t="n">
+        <v>218401.54</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
@@ -657,6 +698,9 @@
       <c r="D14" t="n">
         <v>1130073.11</v>
       </c>
+      <c r="E14" t="n">
+        <v>1130830.38</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
@@ -672,6 +716,9 @@
       </c>
       <c r="D15" t="n">
         <v>17905.44</v>
+      </c>
+      <c r="E15" t="n">
+        <v>17908.37</v>
       </c>
     </row>
     <row r="16">
@@ -687,6 +734,9 @@
       <c r="D16" t="n">
         <v>1142564.79</v>
       </c>
+      <c r="E16" t="n">
+        <v>1101130.55</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
@@ -701,6 +751,9 @@
       <c r="D17" t="n">
         <v>372373.52</v>
       </c>
+      <c r="E17" t="n">
+        <v>326259.56</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
@@ -715,6 +768,9 @@
       <c r="D18" t="n">
         <v>69339.19</v>
       </c>
+      <c r="E18" t="n">
+        <v>69287.64999999999</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
@@ -729,6 +785,9 @@
       <c r="D19" t="n">
         <v>2499.29</v>
       </c>
+      <c r="E19" t="n">
+        <v>2501.31</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
@@ -743,6 +802,9 @@
       <c r="D20" t="n">
         <v>8186.47</v>
       </c>
+      <c r="E20" t="n">
+        <v>8196.33</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
@@ -757,6 +819,9 @@
       <c r="D21" t="n">
         <v>31387.35</v>
       </c>
+      <c r="E21" t="n">
+        <v>22168.82</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
@@ -771,6 +836,9 @@
       <c r="D22" t="n">
         <v>416460.79</v>
       </c>
+      <c r="E22" t="n">
+        <v>405384.12</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
@@ -785,6 +853,9 @@
       <c r="D23" t="n">
         <v>106771.35</v>
       </c>
+      <c r="E23" t="n">
+        <v>106848.3</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
@@ -799,6 +870,9 @@
       <c r="D24" t="n">
         <v>247231.47</v>
       </c>
+      <c r="E24" t="n">
+        <v>266926.7</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
@@ -813,6 +887,9 @@
       <c r="D25" t="n">
         <v>249903.77</v>
       </c>
+      <c r="E25" t="n">
+        <v>255423.76</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
@@ -827,6 +904,9 @@
       <c r="D26" t="n">
         <v>222556.7</v>
       </c>
+      <c r="E26" t="n">
+        <v>240484.4</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
@@ -843,6 +923,9 @@
       <c r="D27" t="n">
         <v>223521.83</v>
       </c>
+      <c r="E27" t="n">
+        <v>234847.32</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
@@ -859,6 +942,9 @@
       <c r="D28" t="n">
         <v>2149944.22</v>
       </c>
+      <c r="E28" t="n">
+        <v>2150956.97</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
@@ -875,6 +961,9 @@
       <c r="D29" t="n">
         <v>40036.92</v>
       </c>
+      <c r="E29" t="n">
+        <v>39989.09</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
@@ -891,6 +980,9 @@
       <c r="D30" t="n">
         <v>5311.18</v>
       </c>
+      <c r="E30" t="n">
+        <v>5302.68</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
@@ -907,6 +999,9 @@
       <c r="D31" t="n">
         <v>153050.14</v>
       </c>
+      <c r="E31" t="n">
+        <v>152830.8</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
@@ -923,6 +1018,9 @@
       <c r="D32" t="n">
         <v>250275.02</v>
       </c>
+      <c r="E32" t="n">
+        <v>250561.67</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
@@ -939,6 +1037,9 @@
       <c r="D33" t="n">
         <v>56122.92</v>
       </c>
+      <c r="E33" t="n">
+        <v>58730.41</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
@@ -955,6 +1056,9 @@
       <c r="D34" t="n">
         <v>4431.63</v>
       </c>
+      <c r="E34" t="n">
+        <v>4425.64</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
@@ -971,6 +1075,9 @@
       <c r="D35" t="n">
         <v>37460.79</v>
       </c>
+      <c r="E35" t="n">
+        <v>37533.8</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
@@ -987,6 +1094,9 @@
       <c r="D36" t="n">
         <v>79744.92999999999</v>
       </c>
+      <c r="E36" t="n">
+        <v>79684.23</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
@@ -1002,6 +1112,9 @@
       </c>
       <c r="D37" t="n">
         <v>34996.82</v>
+      </c>
+      <c r="E37" t="n">
+        <v>34979.03</v>
       </c>
     </row>
     <row r="38">
@@ -1017,6 +1130,9 @@
       <c r="D38" t="n">
         <v>85134.83</v>
       </c>
+      <c r="E38" t="n">
+        <v>85070.00999999999</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
@@ -1033,6 +1149,9 @@
       <c r="D39" t="n">
         <v>129325.15</v>
       </c>
+      <c r="E39" t="n">
+        <v>202186.47</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
@@ -1049,6 +1168,9 @@
       <c r="D40" t="n">
         <v>79302.22</v>
       </c>
+      <c r="E40" t="n">
+        <v>79325.52</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
@@ -1065,6 +1187,9 @@
       <c r="D41" t="n">
         <v>116885.8</v>
       </c>
+      <c r="E41" t="n">
+        <v>116890.29</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
@@ -1081,6 +1206,9 @@
       <c r="D42" t="n">
         <v>77949.88</v>
       </c>
+      <c r="E42" t="n">
+        <v>76528.53</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
@@ -1097,6 +1225,9 @@
       <c r="D43" t="n">
         <v>576571.37</v>
       </c>
+      <c r="E43" t="n">
+        <v>576493.15</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
@@ -1113,6 +1244,9 @@
       <c r="D44" t="n">
         <v>1212059.14</v>
       </c>
+      <c r="E44" t="n">
+        <v>1211965.01</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
@@ -1129,6 +1263,7 @@
       <c r="D45" t="n">
         <v>615709.1899999999</v>
       </c>
+      <c r="E45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
@@ -1145,6 +1280,9 @@
       <c r="D46" t="n">
         <v>17097.36</v>
       </c>
+      <c r="E46" t="n">
+        <v>16851.22</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
@@ -1161,6 +1299,9 @@
       <c r="D47" t="n">
         <v>60618.95</v>
       </c>
+      <c r="E47" t="n">
+        <v>60599.1</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
@@ -1177,6 +1318,7 @@
       <c r="D48" t="n">
         <v>80742.60000000001</v>
       </c>
+      <c r="E48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
@@ -1193,6 +1335,9 @@
       <c r="D49" t="n">
         <v>244188.71</v>
       </c>
+      <c r="E49" t="n">
+        <v>241509.63</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
@@ -1208,6 +1353,9 @@
       </c>
       <c r="D50" t="n">
         <v>11476869.28</v>
+      </c>
+      <c r="E50" t="n">
+        <v>10867933.22</v>
       </c>
     </row>
   </sheetData>

--- a/backend/src/excel_handler/files/LOMA.xlsx
+++ b/backend/src/excel_handler/files/LOMA.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E50"/>
+  <dimension ref="A1:F50"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -454,6 +454,11 @@
           <t>27-01-2023</t>
         </is>
       </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>03-02-2023</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -473,6 +478,9 @@
       <c r="E2" t="n">
         <v>124055.68</v>
       </c>
+      <c r="F2" t="n">
+        <v>124021.96</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -492,6 +500,9 @@
       <c r="E3" t="n">
         <v>367368.37</v>
       </c>
+      <c r="F3" t="n">
+        <v>356599.11</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -511,6 +522,9 @@
       <c r="E4" t="n">
         <v>49260.97</v>
       </c>
+      <c r="F4" t="n">
+        <v>49355.17</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -530,6 +544,9 @@
       <c r="E5" t="n">
         <v>63309.59</v>
       </c>
+      <c r="F5" t="n">
+        <v>63271.39</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -549,6 +566,9 @@
       <c r="E6" t="n">
         <v>160571.28</v>
       </c>
+      <c r="F6" t="n">
+        <v>160764.07</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -568,6 +588,9 @@
       <c r="E7" t="n">
         <v>56.13</v>
       </c>
+      <c r="F7" t="n">
+        <v>54.8</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -587,6 +610,9 @@
       <c r="E8" t="n">
         <v>157769.59</v>
       </c>
+      <c r="F8" t="n">
+        <v>158175.2</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -606,6 +632,9 @@
       <c r="E9" t="n">
         <v>280203.7</v>
       </c>
+      <c r="F9" t="n">
+        <v>280505</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -625,6 +654,9 @@
       <c r="E10" t="n">
         <v>12878.96</v>
       </c>
+      <c r="F10" t="n">
+        <v>12901.6</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -644,6 +676,9 @@
       <c r="E11" t="n">
         <v>2994.06</v>
       </c>
+      <c r="F11" t="n">
+        <v>2994.45</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -663,6 +698,9 @@
       <c r="E12" t="n">
         <v>1962.16</v>
       </c>
+      <c r="F12" t="n">
+        <v>1985.94</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
@@ -682,6 +720,9 @@
       <c r="E13" t="n">
         <v>218401.54</v>
       </c>
+      <c r="F13" t="n">
+        <v>228293.26</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
@@ -701,6 +742,9 @@
       <c r="E14" t="n">
         <v>1130830.38</v>
       </c>
+      <c r="F14" t="n">
+        <v>1119866.17</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
@@ -719,6 +763,9 @@
       </c>
       <c r="E15" t="n">
         <v>17908.37</v>
+      </c>
+      <c r="F15" t="n">
+        <v>17913.81</v>
       </c>
     </row>
     <row r="16">
@@ -737,6 +784,9 @@
       <c r="E16" t="n">
         <v>1101130.55</v>
       </c>
+      <c r="F16" t="n">
+        <v>1100672.17</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
@@ -754,6 +804,9 @@
       <c r="E17" t="n">
         <v>326259.56</v>
       </c>
+      <c r="F17" t="n">
+        <v>326417.06</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
@@ -771,6 +824,9 @@
       <c r="E18" t="n">
         <v>69287.64999999999</v>
       </c>
+      <c r="F18" t="n">
+        <v>69266.74000000001</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
@@ -788,6 +844,9 @@
       <c r="E19" t="n">
         <v>2501.31</v>
       </c>
+      <c r="F19" t="n">
+        <v>2499.43</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
@@ -805,6 +864,9 @@
       <c r="E20" t="n">
         <v>8196.33</v>
       </c>
+      <c r="F20" t="n">
+        <v>8189.77</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
@@ -822,6 +884,9 @@
       <c r="E21" t="n">
         <v>22168.82</v>
       </c>
+      <c r="F21" t="n">
+        <v>22306.87</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
@@ -839,6 +904,9 @@
       <c r="E22" t="n">
         <v>405384.12</v>
       </c>
+      <c r="F22" t="n">
+        <v>396226.89</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
@@ -856,6 +924,9 @@
       <c r="E23" t="n">
         <v>106848.3</v>
       </c>
+      <c r="F23" t="n">
+        <v>106040.47</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
@@ -873,6 +944,9 @@
       <c r="E24" t="n">
         <v>266926.7</v>
       </c>
+      <c r="F24" t="n">
+        <v>275353.71</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
@@ -890,6 +964,9 @@
       <c r="E25" t="n">
         <v>255423.76</v>
       </c>
+      <c r="F25" t="n">
+        <v>254617.57</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
@@ -907,6 +984,9 @@
       <c r="E26" t="n">
         <v>240484.4</v>
       </c>
+      <c r="F26" t="n">
+        <v>237102.39</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
@@ -926,6 +1006,9 @@
       <c r="E27" t="n">
         <v>234847.32</v>
       </c>
+      <c r="F27" t="n">
+        <v>236883.28</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
@@ -945,6 +1028,9 @@
       <c r="E28" t="n">
         <v>2150956.97</v>
       </c>
+      <c r="F28" t="n">
+        <v>2150095.81</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
@@ -964,6 +1050,9 @@
       <c r="E29" t="n">
         <v>39989.09</v>
       </c>
+      <c r="F29" t="n">
+        <v>39989.87</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
@@ -983,6 +1072,9 @@
       <c r="E30" t="n">
         <v>5302.68</v>
       </c>
+      <c r="F30" t="n">
+        <v>5292.59</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
@@ -1002,6 +1094,9 @@
       <c r="E31" t="n">
         <v>152830.8</v>
       </c>
+      <c r="F31" t="n">
+        <v>152895.13</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
@@ -1021,6 +1116,9 @@
       <c r="E32" t="n">
         <v>250561.67</v>
       </c>
+      <c r="F32" t="n">
+        <v>250643.6</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
@@ -1040,6 +1138,9 @@
       <c r="E33" t="n">
         <v>58730.41</v>
       </c>
+      <c r="F33" t="n">
+        <v>58143.89</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
@@ -1059,6 +1160,9 @@
       <c r="E34" t="n">
         <v>4425.64</v>
       </c>
+      <c r="F34" t="n">
+        <v>4438</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
@@ -1078,6 +1182,9 @@
       <c r="E35" t="n">
         <v>37533.8</v>
       </c>
+      <c r="F35" t="n">
+        <v>37488.69</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
@@ -1097,6 +1204,9 @@
       <c r="E36" t="n">
         <v>79684.23</v>
       </c>
+      <c r="F36" t="n">
+        <v>79708.75999999999</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
@@ -1115,6 +1225,9 @@
       </c>
       <c r="E37" t="n">
         <v>34979.03</v>
+      </c>
+      <c r="F37" t="n">
+        <v>32522.61</v>
       </c>
     </row>
     <row r="38">
@@ -1133,6 +1246,9 @@
       <c r="E38" t="n">
         <v>85070.00999999999</v>
       </c>
+      <c r="F38" t="n">
+        <v>84920.62</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
@@ -1152,6 +1268,9 @@
       <c r="E39" t="n">
         <v>202186.47</v>
       </c>
+      <c r="F39" t="n">
+        <v>202404.45</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
@@ -1171,6 +1290,9 @@
       <c r="E40" t="n">
         <v>79325.52</v>
       </c>
+      <c r="F40" t="n">
+        <v>79356.17999999999</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
@@ -1190,6 +1312,9 @@
       <c r="E41" t="n">
         <v>116890.29</v>
       </c>
+      <c r="F41" t="n">
+        <v>116800.49</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
@@ -1209,6 +1334,9 @@
       <c r="E42" t="n">
         <v>76528.53</v>
       </c>
+      <c r="F42" t="n">
+        <v>82599.48</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
@@ -1228,6 +1356,9 @@
       <c r="E43" t="n">
         <v>576493.15</v>
       </c>
+      <c r="F43" t="n">
+        <v>576881.42</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
@@ -1247,6 +1378,9 @@
       <c r="E44" t="n">
         <v>1211965.01</v>
       </c>
+      <c r="F44" t="n">
+        <v>1212208.22</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
@@ -1264,6 +1398,7 @@
         <v>615709.1899999999</v>
       </c>
       <c r="E45" t="inlineStr"/>
+      <c r="F45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
@@ -1283,6 +1418,9 @@
       <c r="E46" t="n">
         <v>16851.22</v>
       </c>
+      <c r="F46" t="n">
+        <v>17136.68</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
@@ -1302,6 +1440,9 @@
       <c r="E47" t="n">
         <v>60599.1</v>
       </c>
+      <c r="F47" t="n">
+        <v>60651.86</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
@@ -1319,6 +1460,7 @@
         <v>80742.60000000001</v>
       </c>
       <c r="E48" t="inlineStr"/>
+      <c r="F48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
@@ -1338,6 +1480,9 @@
       <c r="E49" t="n">
         <v>241509.63</v>
       </c>
+      <c r="F49" t="n">
+        <v>241254.59</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
@@ -1356,6 +1501,9 @@
       </c>
       <c r="E50" t="n">
         <v>10867933.22</v>
+      </c>
+      <c r="F50" t="n">
+        <v>10856456.63</v>
       </c>
     </row>
   </sheetData>

--- a/backend/src/excel_handler/files/LOMA.xlsx
+++ b/backend/src/excel_handler/files/LOMA.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F50"/>
+  <dimension ref="A1:G50"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -459,6 +459,11 @@
           <t>03-02-2023</t>
         </is>
       </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>10-02-2023</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -481,6 +486,9 @@
       <c r="F2" t="n">
         <v>124021.96</v>
       </c>
+      <c r="G2" t="n">
+        <v>123876.2</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -503,6 +511,9 @@
       <c r="F3" t="n">
         <v>356599.11</v>
       </c>
+      <c r="G3" t="n">
+        <v>365900.7</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -525,6 +536,9 @@
       <c r="F4" t="n">
         <v>49355.17</v>
       </c>
+      <c r="G4" t="n">
+        <v>49180.87</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -547,6 +561,9 @@
       <c r="F5" t="n">
         <v>63271.39</v>
       </c>
+      <c r="G5" t="n">
+        <v>63181.73</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -569,6 +586,9 @@
       <c r="F6" t="n">
         <v>160764.07</v>
       </c>
+      <c r="G6" t="n">
+        <v>160825.4</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -591,6 +611,9 @@
       <c r="F7" t="n">
         <v>54.8</v>
       </c>
+      <c r="G7" t="n">
+        <v>55.27</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -613,6 +636,9 @@
       <c r="F8" t="n">
         <v>158175.2</v>
       </c>
+      <c r="G8" t="n">
+        <v>158168.7</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -635,6 +661,9 @@
       <c r="F9" t="n">
         <v>280505</v>
       </c>
+      <c r="G9" t="n">
+        <v>278810.51</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -657,6 +686,9 @@
       <c r="F10" t="n">
         <v>12901.6</v>
       </c>
+      <c r="G10" t="n">
+        <v>12872.2</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -679,6 +711,9 @@
       <c r="F11" t="n">
         <v>2994.45</v>
       </c>
+      <c r="G11" t="n">
+        <v>2998.01</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -701,6 +736,9 @@
       <c r="F12" t="n">
         <v>1985.94</v>
       </c>
+      <c r="G12" t="n">
+        <v>1981.03</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
@@ -723,6 +761,9 @@
       <c r="F13" t="n">
         <v>228293.26</v>
       </c>
+      <c r="G13" t="n">
+        <v>245850.17</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
@@ -745,6 +786,9 @@
       <c r="F14" t="n">
         <v>1119866.17</v>
       </c>
+      <c r="G14" t="n">
+        <v>1112705.65</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
@@ -766,6 +810,9 @@
       </c>
       <c r="F15" t="n">
         <v>17913.81</v>
+      </c>
+      <c r="G15" t="n">
+        <v>17914.3</v>
       </c>
     </row>
     <row r="16">
@@ -787,6 +834,9 @@
       <c r="F16" t="n">
         <v>1100672.17</v>
       </c>
+      <c r="G16" t="n">
+        <v>1079344.94</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
@@ -807,6 +857,9 @@
       <c r="F17" t="n">
         <v>326417.06</v>
       </c>
+      <c r="G17" t="n">
+        <v>326270.78</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
@@ -827,6 +880,9 @@
       <c r="F18" t="n">
         <v>69266.74000000001</v>
       </c>
+      <c r="G18" t="n">
+        <v>69176.66</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
@@ -847,6 +903,9 @@
       <c r="F19" t="n">
         <v>2499.43</v>
       </c>
+      <c r="G19" t="n">
+        <v>2504.24</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
@@ -867,6 +926,9 @@
       <c r="F20" t="n">
         <v>8189.77</v>
       </c>
+      <c r="G20" t="n">
+        <v>8198.59</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
@@ -887,6 +949,9 @@
       <c r="F21" t="n">
         <v>22306.87</v>
       </c>
+      <c r="G21" t="n">
+        <v>22157.46</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
@@ -907,6 +972,9 @@
       <c r="F22" t="n">
         <v>396226.89</v>
       </c>
+      <c r="G22" t="n">
+        <v>356215.79</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
@@ -927,6 +995,9 @@
       <c r="F23" t="n">
         <v>106040.47</v>
       </c>
+      <c r="G23" t="n">
+        <v>86426.48</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
@@ -947,6 +1018,9 @@
       <c r="F24" t="n">
         <v>275353.71</v>
       </c>
+      <c r="G24" t="n">
+        <v>274006.54</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
@@ -967,6 +1041,9 @@
       <c r="F25" t="n">
         <v>254617.57</v>
       </c>
+      <c r="G25" t="n">
+        <v>251669.71</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
@@ -987,6 +1064,9 @@
       <c r="F26" t="n">
         <v>237102.39</v>
       </c>
+      <c r="G26" t="n">
+        <v>236480.52</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
@@ -1009,6 +1089,9 @@
       <c r="F27" t="n">
         <v>236883.28</v>
       </c>
+      <c r="G27" t="n">
+        <v>237343.79</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
@@ -1031,6 +1114,9 @@
       <c r="F28" t="n">
         <v>2150095.81</v>
       </c>
+      <c r="G28" t="n">
+        <v>2150838.78</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
@@ -1053,6 +1139,9 @@
       <c r="F29" t="n">
         <v>39989.87</v>
       </c>
+      <c r="G29" t="n">
+        <v>40012.07</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
@@ -1075,6 +1164,9 @@
       <c r="F30" t="n">
         <v>5292.59</v>
       </c>
+      <c r="G30" t="n">
+        <v>5309.89</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
@@ -1097,6 +1189,9 @@
       <c r="F31" t="n">
         <v>152895.13</v>
       </c>
+      <c r="G31" t="n">
+        <v>148092.28</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
@@ -1119,6 +1214,9 @@
       <c r="F32" t="n">
         <v>250643.6</v>
       </c>
+      <c r="G32" t="n">
+        <v>230543.28</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
@@ -1141,6 +1239,9 @@
       <c r="F33" t="n">
         <v>58143.89</v>
       </c>
+      <c r="G33" t="n">
+        <v>58185.04</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
@@ -1163,6 +1264,9 @@
       <c r="F34" t="n">
         <v>4438</v>
       </c>
+      <c r="G34" t="n">
+        <v>4432.5</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
@@ -1185,6 +1289,9 @@
       <c r="F35" t="n">
         <v>37488.69</v>
       </c>
+      <c r="G35" t="n">
+        <v>37487.56</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
@@ -1207,6 +1314,9 @@
       <c r="F36" t="n">
         <v>79708.75999999999</v>
       </c>
+      <c r="G36" t="n">
+        <v>79718.58</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
@@ -1228,6 +1338,9 @@
       </c>
       <c r="F37" t="n">
         <v>32522.61</v>
+      </c>
+      <c r="G37" t="n">
+        <v>32556.72</v>
       </c>
     </row>
     <row r="38">
@@ -1249,6 +1362,9 @@
       <c r="F38" t="n">
         <v>84920.62</v>
       </c>
+      <c r="G38" t="n">
+        <v>85022.81</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
@@ -1271,6 +1387,9 @@
       <c r="F39" t="n">
         <v>202404.45</v>
       </c>
+      <c r="G39" t="n">
+        <v>202161.98</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
@@ -1293,6 +1412,9 @@
       <c r="F40" t="n">
         <v>79356.17999999999</v>
       </c>
+      <c r="G40" t="n">
+        <v>79371.44</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
@@ -1315,6 +1437,9 @@
       <c r="F41" t="n">
         <v>116800.49</v>
       </c>
+      <c r="G41" t="n">
+        <v>117066.31</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
@@ -1337,6 +1462,9 @@
       <c r="F42" t="n">
         <v>82599.48</v>
       </c>
+      <c r="G42" t="n">
+        <v>83602.53999999999</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
@@ -1359,6 +1487,9 @@
       <c r="F43" t="n">
         <v>576881.42</v>
       </c>
+      <c r="G43" t="n">
+        <v>576550.1800000001</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
@@ -1381,6 +1512,9 @@
       <c r="F44" t="n">
         <v>1212208.22</v>
       </c>
+      <c r="G44" t="n">
+        <v>1204885.71</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
@@ -1399,6 +1533,7 @@
       </c>
       <c r="E45" t="inlineStr"/>
       <c r="F45" t="inlineStr"/>
+      <c r="G45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
@@ -1421,6 +1556,9 @@
       <c r="F46" t="n">
         <v>17136.68</v>
       </c>
+      <c r="G46" t="n">
+        <v>17791.63</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
@@ -1443,6 +1581,9 @@
       <c r="F47" t="n">
         <v>60651.86</v>
       </c>
+      <c r="G47" t="n">
+        <v>60684.85</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
@@ -1461,6 +1602,7 @@
       </c>
       <c r="E48" t="inlineStr"/>
       <c r="F48" t="inlineStr"/>
+      <c r="G48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
@@ -1483,6 +1625,9 @@
       <c r="F49" t="n">
         <v>241254.59</v>
       </c>
+      <c r="G49" t="n">
+        <v>239076.23</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
@@ -1504,6 +1649,9 @@
       </c>
       <c r="F50" t="n">
         <v>10856456.63</v>
+      </c>
+      <c r="G50" t="n">
+        <v>10758430.39</v>
       </c>
     </row>
   </sheetData>

--- a/backend/src/excel_handler/files/LOMA.xlsx
+++ b/backend/src/excel_handler/files/LOMA.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G50"/>
+  <dimension ref="A1:H50"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -464,6 +464,11 @@
           <t>10-02-2023</t>
         </is>
       </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>17-02-2023</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -489,6 +494,9 @@
       <c r="G2" t="n">
         <v>123876.2</v>
       </c>
+      <c r="H2" t="n">
+        <v>123858.69</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -514,6 +522,9 @@
       <c r="G3" t="n">
         <v>365900.7</v>
       </c>
+      <c r="H3" t="n">
+        <v>350456.56</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -539,6 +550,9 @@
       <c r="G4" t="n">
         <v>49180.87</v>
       </c>
+      <c r="H4" t="n">
+        <v>49339.77</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -564,6 +578,9 @@
       <c r="G5" t="n">
         <v>63181.73</v>
       </c>
+      <c r="H5" t="n">
+        <v>63338.61</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -589,6 +606,9 @@
       <c r="G6" t="n">
         <v>160825.4</v>
       </c>
+      <c r="H6" t="n">
+        <v>160789.97</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -614,6 +634,9 @@
       <c r="G7" t="n">
         <v>55.27</v>
       </c>
+      <c r="H7" t="n">
+        <v>55.35</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -639,6 +662,9 @@
       <c r="G8" t="n">
         <v>158168.7</v>
       </c>
+      <c r="H8" t="n">
+        <v>158361.16</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -664,6 +690,9 @@
       <c r="G9" t="n">
         <v>278810.51</v>
       </c>
+      <c r="H9" t="n">
+        <v>280493.77</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -689,6 +718,9 @@
       <c r="G10" t="n">
         <v>12872.2</v>
       </c>
+      <c r="H10" t="n">
+        <v>12871.11</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -714,6 +746,9 @@
       <c r="G11" t="n">
         <v>2998.01</v>
       </c>
+      <c r="H11" t="n">
+        <v>2994.97</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -739,6 +774,9 @@
       <c r="G12" t="n">
         <v>1981.03</v>
       </c>
+      <c r="H12" t="n">
+        <v>1961.4</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
@@ -764,6 +802,9 @@
       <c r="G13" t="n">
         <v>245850.17</v>
       </c>
+      <c r="H13" t="n">
+        <v>246102.22</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
@@ -789,6 +830,9 @@
       <c r="G14" t="n">
         <v>1112705.65</v>
       </c>
+      <c r="H14" t="n">
+        <v>1112767.83</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
@@ -813,6 +857,9 @@
       </c>
       <c r="G15" t="n">
         <v>17914.3</v>
+      </c>
+      <c r="H15" t="n">
+        <v>17910.37</v>
       </c>
     </row>
     <row r="16">
@@ -837,6 +884,9 @@
       <c r="G16" t="n">
         <v>1079344.94</v>
       </c>
+      <c r="H16" t="n">
+        <v>1078713.39</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
@@ -860,6 +910,9 @@
       <c r="G17" t="n">
         <v>326270.78</v>
       </c>
+      <c r="H17" t="n">
+        <v>326219.12</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
@@ -883,6 +936,9 @@
       <c r="G18" t="n">
         <v>69176.66</v>
       </c>
+      <c r="H18" t="n">
+        <v>69254.03</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
@@ -906,6 +962,9 @@
       <c r="G19" t="n">
         <v>2504.24</v>
       </c>
+      <c r="H19" t="n">
+        <v>2501.32</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
@@ -929,6 +988,9 @@
       <c r="G20" t="n">
         <v>8198.59</v>
       </c>
+      <c r="H20" t="n">
+        <v>8186.55</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
@@ -952,6 +1014,9 @@
       <c r="G21" t="n">
         <v>22157.46</v>
       </c>
+      <c r="H21" t="n">
+        <v>21987.52</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
@@ -975,6 +1040,9 @@
       <c r="G22" t="n">
         <v>356215.79</v>
       </c>
+      <c r="H22" t="n">
+        <v>356698.65</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
@@ -998,6 +1066,9 @@
       <c r="G23" t="n">
         <v>86426.48</v>
       </c>
+      <c r="H23" t="n">
+        <v>86086.09</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
@@ -1021,6 +1092,9 @@
       <c r="G24" t="n">
         <v>274006.54</v>
       </c>
+      <c r="H24" t="n">
+        <v>273733.35</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
@@ -1044,6 +1118,9 @@
       <c r="G25" t="n">
         <v>251669.71</v>
       </c>
+      <c r="H25" t="n">
+        <v>251535.6</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
@@ -1067,6 +1144,9 @@
       <c r="G26" t="n">
         <v>236480.52</v>
       </c>
+      <c r="H26" t="n">
+        <v>236843.68</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
@@ -1092,6 +1172,9 @@
       <c r="G27" t="n">
         <v>237343.79</v>
       </c>
+      <c r="H27" t="n">
+        <v>237073.42</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
@@ -1117,6 +1200,9 @@
       <c r="G28" t="n">
         <v>2150838.78</v>
       </c>
+      <c r="H28" t="n">
+        <v>1500027.92</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
@@ -1142,6 +1228,9 @@
       <c r="G29" t="n">
         <v>40012.07</v>
       </c>
+      <c r="H29" t="n">
+        <v>40027.99</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
@@ -1167,6 +1256,9 @@
       <c r="G30" t="n">
         <v>5309.89</v>
       </c>
+      <c r="H30" t="n">
+        <v>5295.59</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
@@ -1192,6 +1284,9 @@
       <c r="G31" t="n">
         <v>148092.28</v>
       </c>
+      <c r="H31" t="n">
+        <v>147861.6</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
@@ -1217,6 +1312,9 @@
       <c r="G32" t="n">
         <v>230543.28</v>
       </c>
+      <c r="H32" t="n">
+        <v>230325.57</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
@@ -1242,6 +1340,9 @@
       <c r="G33" t="n">
         <v>58185.04</v>
       </c>
+      <c r="H33" t="n">
+        <v>69134.8</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
@@ -1267,6 +1368,9 @@
       <c r="G34" t="n">
         <v>4432.5</v>
       </c>
+      <c r="H34" t="n">
+        <v>4443.12</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
@@ -1292,6 +1396,9 @@
       <c r="G35" t="n">
         <v>37487.56</v>
       </c>
+      <c r="H35" t="n">
+        <v>37503.73</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
@@ -1317,6 +1424,9 @@
       <c r="G36" t="n">
         <v>79718.58</v>
       </c>
+      <c r="H36" t="n">
+        <v>79685.37</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
@@ -1341,6 +1451,9 @@
       </c>
       <c r="G37" t="n">
         <v>32556.72</v>
+      </c>
+      <c r="H37" t="n">
+        <v>32548.36</v>
       </c>
     </row>
     <row r="38">
@@ -1365,6 +1478,9 @@
       <c r="G38" t="n">
         <v>85022.81</v>
       </c>
+      <c r="H38" t="n">
+        <v>85118.53</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
@@ -1390,6 +1506,9 @@
       <c r="G39" t="n">
         <v>202161.98</v>
       </c>
+      <c r="H39" t="n">
+        <v>202500.08</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
@@ -1415,6 +1534,9 @@
       <c r="G40" t="n">
         <v>79371.44</v>
       </c>
+      <c r="H40" t="n">
+        <v>83412.08</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
@@ -1440,6 +1562,9 @@
       <c r="G41" t="n">
         <v>117066.31</v>
       </c>
+      <c r="H41" t="n">
+        <v>116871.23</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
@@ -1465,6 +1590,9 @@
       <c r="G42" t="n">
         <v>83602.53999999999</v>
       </c>
+      <c r="H42" t="n">
+        <v>83861.5</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
@@ -1490,6 +1618,9 @@
       <c r="G43" t="n">
         <v>576550.1800000001</v>
       </c>
+      <c r="H43" t="n">
+        <v>552632.53</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
@@ -1514,6 +1645,9 @@
       </c>
       <c r="G44" t="n">
         <v>1204885.71</v>
+      </c>
+      <c r="H44" t="n">
+        <v>1208756</v>
       </c>
     </row>
     <row r="45">
@@ -1534,6 +1668,7 @@
       <c r="E45" t="inlineStr"/>
       <c r="F45" t="inlineStr"/>
       <c r="G45" t="inlineStr"/>
+      <c r="H45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
@@ -1559,6 +1694,9 @@
       <c r="G46" t="n">
         <v>17791.63</v>
       </c>
+      <c r="H46" t="n">
+        <v>16261.97</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
@@ -1583,6 +1721,9 @@
       </c>
       <c r="G47" t="n">
         <v>60684.85</v>
+      </c>
+      <c r="H47" t="n">
+        <v>60601.92</v>
       </c>
     </row>
     <row r="48">
@@ -1603,6 +1744,7 @@
       <c r="E48" t="inlineStr"/>
       <c r="F48" t="inlineStr"/>
       <c r="G48" t="inlineStr"/>
+      <c r="H48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
@@ -1628,6 +1770,9 @@
       <c r="G49" t="n">
         <v>239076.23</v>
       </c>
+      <c r="H49" t="n">
+        <v>224155.65</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
@@ -1652,6 +1797,9 @@
       </c>
       <c r="G50" t="n">
         <v>10758430.39</v>
+      </c>
+      <c r="H50" t="n">
+        <v>10087004.39</v>
       </c>
     </row>
   </sheetData>

--- a/backend/src/excel_handler/files/LOMA.xlsx
+++ b/backend/src/excel_handler/files/LOMA.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H50"/>
+  <dimension ref="A1:I50"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,6 +469,11 @@
           <t>17-02-2023</t>
         </is>
       </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>24-02-2023</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -497,6 +502,9 @@
       <c r="H2" t="n">
         <v>123858.69</v>
       </c>
+      <c r="I2" t="n">
+        <v>98470.59</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -525,6 +533,9 @@
       <c r="H3" t="n">
         <v>350456.56</v>
       </c>
+      <c r="I3" t="n">
+        <v>350424.13</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -553,6 +564,9 @@
       <c r="H4" t="n">
         <v>49339.77</v>
       </c>
+      <c r="I4" t="n">
+        <v>49272.57</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -581,6 +595,9 @@
       <c r="H5" t="n">
         <v>63338.61</v>
       </c>
+      <c r="I5" t="n">
+        <v>63292.47</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -609,6 +626,9 @@
       <c r="H6" t="n">
         <v>160789.97</v>
       </c>
+      <c r="I6" t="n">
+        <v>160483.58</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -637,6 +657,9 @@
       <c r="H7" t="n">
         <v>55.35</v>
       </c>
+      <c r="I7" t="n">
+        <v>54.24</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -665,6 +688,9 @@
       <c r="H8" t="n">
         <v>158361.16</v>
       </c>
+      <c r="I8" t="n">
+        <v>158360</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -693,6 +719,9 @@
       <c r="H9" t="n">
         <v>280493.77</v>
       </c>
+      <c r="I9" t="n">
+        <v>671139.9</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -721,6 +750,9 @@
       <c r="H10" t="n">
         <v>12871.11</v>
       </c>
+      <c r="I10" t="n">
+        <v>12899.42</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -749,6 +781,9 @@
       <c r="H11" t="n">
         <v>2994.97</v>
       </c>
+      <c r="I11" t="n">
+        <v>2994.16</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -777,6 +812,9 @@
       <c r="H12" t="n">
         <v>1961.4</v>
       </c>
+      <c r="I12" t="n">
+        <v>1959.73</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
@@ -805,6 +843,9 @@
       <c r="H13" t="n">
         <v>246102.22</v>
       </c>
+      <c r="I13" t="n">
+        <v>246265.25</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
@@ -833,6 +874,9 @@
       <c r="H14" t="n">
         <v>1112767.83</v>
       </c>
+      <c r="I14" t="n">
+        <v>1113006.71</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
@@ -860,6 +904,9 @@
       </c>
       <c r="H15" t="n">
         <v>17910.37</v>
+      </c>
+      <c r="I15" t="n">
+        <v>17908.96</v>
       </c>
     </row>
     <row r="16">
@@ -887,6 +934,9 @@
       <c r="H16" t="n">
         <v>1078713.39</v>
       </c>
+      <c r="I16" t="n">
+        <v>1055805.73</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
@@ -913,6 +963,9 @@
       <c r="H17" t="n">
         <v>326219.12</v>
       </c>
+      <c r="I17" t="n">
+        <v>326120.15</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
@@ -939,6 +992,9 @@
       <c r="H18" t="n">
         <v>69254.03</v>
       </c>
+      <c r="I18" t="n">
+        <v>69301.56</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
@@ -965,6 +1021,9 @@
       <c r="H19" t="n">
         <v>2501.32</v>
       </c>
+      <c r="I19" t="n">
+        <v>2503.67</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
@@ -991,6 +1050,9 @@
       <c r="H20" t="n">
         <v>8186.55</v>
       </c>
+      <c r="I20" t="n">
+        <v>8199.17</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
@@ -1017,6 +1079,9 @@
       <c r="H21" t="n">
         <v>21987.52</v>
       </c>
+      <c r="I21" t="n">
+        <v>22149.82</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
@@ -1043,6 +1108,9 @@
       <c r="H22" t="n">
         <v>356698.65</v>
       </c>
+      <c r="I22" t="n">
+        <v>355679.84</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
@@ -1069,6 +1137,9 @@
       <c r="H23" t="n">
         <v>86086.09</v>
       </c>
+      <c r="I23" t="n">
+        <v>86440.96000000001</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
@@ -1095,6 +1166,9 @@
       <c r="H24" t="n">
         <v>273733.35</v>
       </c>
+      <c r="I24" t="n">
+        <v>264553.94</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
@@ -1121,6 +1195,9 @@
       <c r="H25" t="n">
         <v>251535.6</v>
       </c>
+      <c r="I25" t="n">
+        <v>251193.28</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
@@ -1147,6 +1224,9 @@
       <c r="H26" t="n">
         <v>236843.68</v>
       </c>
+      <c r="I26" t="n">
+        <v>234171.17</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
@@ -1175,6 +1255,9 @@
       <c r="H27" t="n">
         <v>237073.42</v>
       </c>
+      <c r="I27" t="n">
+        <v>237193.95</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
@@ -1203,6 +1286,9 @@
       <c r="H28" t="n">
         <v>1500027.92</v>
       </c>
+      <c r="I28" t="n">
+        <v>1498851.98</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
@@ -1231,6 +1317,9 @@
       <c r="H29" t="n">
         <v>40027.99</v>
       </c>
+      <c r="I29" t="n">
+        <v>39954.95</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
@@ -1259,6 +1348,9 @@
       <c r="H30" t="n">
         <v>5295.59</v>
       </c>
+      <c r="I30" t="n">
+        <v>5295.44</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
@@ -1287,6 +1379,9 @@
       <c r="H31" t="n">
         <v>147861.6</v>
       </c>
+      <c r="I31" t="n">
+        <v>128056.41</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
@@ -1315,6 +1410,9 @@
       <c r="H32" t="n">
         <v>230325.57</v>
       </c>
+      <c r="I32" t="n">
+        <v>220569.37</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
@@ -1343,6 +1441,9 @@
       <c r="H33" t="n">
         <v>69134.8</v>
       </c>
+      <c r="I33" t="n">
+        <v>69012.81</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
@@ -1371,6 +1472,9 @@
       <c r="H34" t="n">
         <v>4443.12</v>
       </c>
+      <c r="I34" t="n">
+        <v>4431.4</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
@@ -1399,6 +1503,9 @@
       <c r="H35" t="n">
         <v>37503.73</v>
       </c>
+      <c r="I35" t="n">
+        <v>37560.82</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
@@ -1427,6 +1534,9 @@
       <c r="H36" t="n">
         <v>79685.37</v>
       </c>
+      <c r="I36" t="n">
+        <v>79699.89</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
@@ -1454,6 +1564,9 @@
       </c>
       <c r="H37" t="n">
         <v>32548.36</v>
+      </c>
+      <c r="I37" t="n">
+        <v>32503.21</v>
       </c>
     </row>
     <row r="38">
@@ -1481,6 +1594,9 @@
       <c r="H38" t="n">
         <v>85118.53</v>
       </c>
+      <c r="I38" t="n">
+        <v>84937.98</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
@@ -1509,6 +1625,9 @@
       <c r="H39" t="n">
         <v>202500.08</v>
       </c>
+      <c r="I39" t="n">
+        <v>202532.8</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
@@ -1537,6 +1656,9 @@
       <c r="H40" t="n">
         <v>83412.08</v>
       </c>
+      <c r="I40" t="n">
+        <v>83422.96000000001</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
@@ -1565,6 +1687,9 @@
       <c r="H41" t="n">
         <v>116871.23</v>
       </c>
+      <c r="I41" t="n">
+        <v>117073.57</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
@@ -1593,6 +1718,9 @@
       <c r="H42" t="n">
         <v>83861.5</v>
       </c>
+      <c r="I42" t="n">
+        <v>83798.13</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
@@ -1621,6 +1749,9 @@
       <c r="H43" t="n">
         <v>552632.53</v>
       </c>
+      <c r="I43" t="n">
+        <v>553050.1</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
@@ -1648,6 +1779,9 @@
       </c>
       <c r="H44" t="n">
         <v>1208756</v>
+      </c>
+      <c r="I44" t="n">
+        <v>1192124.85</v>
       </c>
     </row>
     <row r="45">
@@ -1669,6 +1803,7 @@
       <c r="F45" t="inlineStr"/>
       <c r="G45" t="inlineStr"/>
       <c r="H45" t="inlineStr"/>
+      <c r="I45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
@@ -1697,6 +1832,9 @@
       <c r="H46" t="n">
         <v>16261.97</v>
       </c>
+      <c r="I46" t="n">
+        <v>18007.61</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
@@ -1724,6 +1862,9 @@
       </c>
       <c r="H47" t="n">
         <v>60601.92</v>
+      </c>
+      <c r="I47" t="n">
+        <v>60585.29</v>
       </c>
     </row>
     <row r="48">
@@ -1745,6 +1886,7 @@
       <c r="F48" t="inlineStr"/>
       <c r="G48" t="inlineStr"/>
       <c r="H48" t="inlineStr"/>
+      <c r="I48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
@@ -1773,6 +1915,9 @@
       <c r="H49" t="n">
         <v>224155.65</v>
       </c>
+      <c r="I49" t="n">
+        <v>230473.66</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
@@ -1800,6 +1945,9 @@
       </c>
       <c r="H50" t="n">
         <v>10087004.39</v>
+      </c>
+      <c r="I50" t="n">
+        <v>10371314.52</v>
       </c>
     </row>
   </sheetData>

--- a/backend/src/excel_handler/files/LOMA.xlsx
+++ b/backend/src/excel_handler/files/LOMA.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I50"/>
+  <dimension ref="A1:J50"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -474,6 +474,11 @@
           <t>24-02-2023</t>
         </is>
       </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>03-03-2023</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -505,6 +510,9 @@
       <c r="I2" t="n">
         <v>98470.59</v>
       </c>
+      <c r="J2" t="n">
+        <v>98245.07000000001</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -536,6 +544,9 @@
       <c r="I3" t="n">
         <v>350424.13</v>
       </c>
+      <c r="J3" t="n">
+        <v>350744.94</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -567,6 +578,9 @@
       <c r="I4" t="n">
         <v>49272.57</v>
       </c>
+      <c r="J4" t="n">
+        <v>49380.12</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -598,6 +612,9 @@
       <c r="I5" t="n">
         <v>63292.47</v>
       </c>
+      <c r="J5" t="n">
+        <v>63241.97</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -629,6 +646,9 @@
       <c r="I6" t="n">
         <v>160483.58</v>
       </c>
+      <c r="J6" t="n">
+        <v>160423.31</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -660,6 +680,9 @@
       <c r="I7" t="n">
         <v>54.24</v>
       </c>
+      <c r="J7" t="n">
+        <v>53.7</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -691,6 +714,9 @@
       <c r="I8" t="n">
         <v>158360</v>
       </c>
+      <c r="J8" t="n">
+        <v>158412.65</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -722,6 +748,9 @@
       <c r="I9" t="n">
         <v>671139.9</v>
       </c>
+      <c r="J9" t="n">
+        <v>691585.4</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -753,6 +782,9 @@
       <c r="I10" t="n">
         <v>12899.42</v>
       </c>
+      <c r="J10" t="n">
+        <v>12849.45</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -784,6 +816,9 @@
       <c r="I11" t="n">
         <v>2994.16</v>
       </c>
+      <c r="J11" t="n">
+        <v>2997.6</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -815,6 +850,9 @@
       <c r="I12" t="n">
         <v>1959.73</v>
       </c>
+      <c r="J12" t="n">
+        <v>1988.22</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
@@ -846,6 +884,9 @@
       <c r="I13" t="n">
         <v>246265.25</v>
       </c>
+      <c r="J13" t="n">
+        <v>206809.94</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
@@ -877,6 +918,9 @@
       <c r="I14" t="n">
         <v>1113006.71</v>
       </c>
+      <c r="J14" t="n">
+        <v>1110851.75</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
@@ -907,6 +951,9 @@
       </c>
       <c r="I15" t="n">
         <v>17908.96</v>
+      </c>
+      <c r="J15" t="n">
+        <v>17910.85</v>
       </c>
     </row>
     <row r="16">
@@ -937,6 +984,9 @@
       <c r="I16" t="n">
         <v>1055805.73</v>
       </c>
+      <c r="J16" t="n">
+        <v>1048516.69</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
@@ -966,6 +1016,9 @@
       <c r="I17" t="n">
         <v>326120.15</v>
       </c>
+      <c r="J17" t="n">
+        <v>326358.59</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
@@ -995,6 +1048,9 @@
       <c r="I18" t="n">
         <v>69301.56</v>
       </c>
+      <c r="J18" t="n">
+        <v>69184.69</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
@@ -1024,6 +1080,9 @@
       <c r="I19" t="n">
         <v>2503.67</v>
       </c>
+      <c r="J19" t="n">
+        <v>2495.06</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
@@ -1053,6 +1112,9 @@
       <c r="I20" t="n">
         <v>8199.17</v>
       </c>
+      <c r="J20" t="n">
+        <v>8188.93</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
@@ -1082,6 +1144,9 @@
       <c r="I21" t="n">
         <v>22149.82</v>
       </c>
+      <c r="J21" t="n">
+        <v>22296.12</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
@@ -1111,6 +1176,9 @@
       <c r="I22" t="n">
         <v>355679.84</v>
       </c>
+      <c r="J22" t="n">
+        <v>355957.56</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
@@ -1140,6 +1208,9 @@
       <c r="I23" t="n">
         <v>86440.96000000001</v>
       </c>
+      <c r="J23" t="n">
+        <v>86504.3</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
@@ -1169,6 +1240,9 @@
       <c r="I24" t="n">
         <v>264553.94</v>
       </c>
+      <c r="J24" t="n">
+        <v>262515.82</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
@@ -1198,6 +1272,9 @@
       <c r="I25" t="n">
         <v>251193.28</v>
       </c>
+      <c r="J25" t="n">
+        <v>245583.09</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
@@ -1227,6 +1304,9 @@
       <c r="I26" t="n">
         <v>234171.17</v>
       </c>
+      <c r="J26" t="n">
+        <v>234094.1</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
@@ -1258,6 +1338,9 @@
       <c r="I27" t="n">
         <v>237193.95</v>
       </c>
+      <c r="J27" t="n">
+        <v>237330.03</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
@@ -1289,6 +1372,9 @@
       <c r="I28" t="n">
         <v>1498851.98</v>
       </c>
+      <c r="J28" t="n">
+        <v>1499868.97</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
@@ -1320,6 +1406,9 @@
       <c r="I29" t="n">
         <v>39954.95</v>
       </c>
+      <c r="J29" t="n">
+        <v>39958.51</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
@@ -1351,6 +1440,9 @@
       <c r="I30" t="n">
         <v>5295.44</v>
       </c>
+      <c r="J30" t="n">
+        <v>5298.97</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
@@ -1382,6 +1474,9 @@
       <c r="I31" t="n">
         <v>128056.41</v>
       </c>
+      <c r="J31" t="n">
+        <v>123141.15</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
@@ -1413,6 +1508,9 @@
       <c r="I32" t="n">
         <v>220569.37</v>
       </c>
+      <c r="J32" t="n">
+        <v>215472.14</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
@@ -1444,6 +1542,9 @@
       <c r="I33" t="n">
         <v>69012.81</v>
       </c>
+      <c r="J33" t="n">
+        <v>69056.47</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
@@ -1475,6 +1576,9 @@
       <c r="I34" t="n">
         <v>4431.4</v>
       </c>
+      <c r="J34" t="n">
+        <v>4430.14</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
@@ -1506,6 +1610,9 @@
       <c r="I35" t="n">
         <v>37560.82</v>
       </c>
+      <c r="J35" t="n">
+        <v>30026.52</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
@@ -1537,6 +1644,9 @@
       <c r="I36" t="n">
         <v>79699.89</v>
       </c>
+      <c r="J36" t="n">
+        <v>79705.13</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
@@ -1567,6 +1677,9 @@
       </c>
       <c r="I37" t="n">
         <v>32503.21</v>
+      </c>
+      <c r="J37" t="n">
+        <v>32537.01</v>
       </c>
     </row>
     <row r="38">
@@ -1597,6 +1710,9 @@
       <c r="I38" t="n">
         <v>84937.98</v>
       </c>
+      <c r="J38" t="n">
+        <v>84860.36</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
@@ -1628,6 +1744,9 @@
       <c r="I39" t="n">
         <v>202532.8</v>
       </c>
+      <c r="J39" t="n">
+        <v>202177.14</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
@@ -1659,6 +1778,9 @@
       <c r="I40" t="n">
         <v>83422.96000000001</v>
       </c>
+      <c r="J40" t="n">
+        <v>88262.91</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
@@ -1690,6 +1812,9 @@
       <c r="I41" t="n">
         <v>117073.57</v>
       </c>
+      <c r="J41" t="n">
+        <v>117041.93</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
@@ -1721,6 +1846,9 @@
       <c r="I42" t="n">
         <v>83798.13</v>
       </c>
+      <c r="J42" t="n">
+        <v>83807.59</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
@@ -1752,6 +1880,9 @@
       <c r="I43" t="n">
         <v>553050.1</v>
       </c>
+      <c r="J43" t="n">
+        <v>552388.28</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
@@ -1782,6 +1913,9 @@
       </c>
       <c r="I44" t="n">
         <v>1192124.85</v>
+      </c>
+      <c r="J44" t="n">
+        <v>1104253.59</v>
       </c>
     </row>
     <row r="45">
@@ -1804,6 +1938,7 @@
       <c r="G45" t="inlineStr"/>
       <c r="H45" t="inlineStr"/>
       <c r="I45" t="inlineStr"/>
+      <c r="J45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
@@ -1835,6 +1970,9 @@
       <c r="I46" t="n">
         <v>18007.61</v>
       </c>
+      <c r="J46" t="n">
+        <v>16203.96</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
@@ -1865,6 +2003,9 @@
       </c>
       <c r="I47" t="n">
         <v>60585.29</v>
+      </c>
+      <c r="J47" t="n">
+        <v>60644.45</v>
       </c>
     </row>
     <row r="48">
@@ -1887,6 +2028,7 @@
       <c r="G48" t="inlineStr"/>
       <c r="H48" t="inlineStr"/>
       <c r="I48" t="inlineStr"/>
+      <c r="J48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
@@ -1918,6 +2060,9 @@
       <c r="I49" t="n">
         <v>230473.66</v>
       </c>
+      <c r="J49" t="n">
+        <v>227414.56</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
@@ -1948,6 +2093,9 @@
       </c>
       <c r="I50" t="n">
         <v>10371314.52</v>
+      </c>
+      <c r="J50" t="n">
+        <v>10233655.17</v>
       </c>
     </row>
   </sheetData>

--- a/backend/src/excel_handler/files/LOMA.xlsx
+++ b/backend/src/excel_handler/files/LOMA.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J50"/>
+  <dimension ref="A1:K50"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -479,6 +479,11 @@
           <t>03-03-2023</t>
         </is>
       </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>10-03-2023</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -513,6 +518,9 @@
       <c r="J2" t="n">
         <v>98245.07000000001</v>
       </c>
+      <c r="K2" t="n">
+        <v>98362.46000000001</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -547,6 +555,9 @@
       <c r="J3" t="n">
         <v>350744.94</v>
       </c>
+      <c r="K3" t="n">
+        <v>361564.31</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -581,6 +592,9 @@
       <c r="J4" t="n">
         <v>49380.12</v>
       </c>
+      <c r="K4" t="n">
+        <v>49295.59</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -615,6 +629,9 @@
       <c r="J5" t="n">
         <v>63241.97</v>
       </c>
+      <c r="K5" t="n">
+        <v>65252.4</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -649,6 +666,9 @@
       <c r="J6" t="n">
         <v>160423.31</v>
       </c>
+      <c r="K6" t="n">
+        <v>160725.84</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -683,6 +703,9 @@
       <c r="J7" t="n">
         <v>53.7</v>
       </c>
+      <c r="K7" t="n">
+        <v>50.96</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -717,6 +740,9 @@
       <c r="J8" t="n">
         <v>158412.65</v>
       </c>
+      <c r="K8" t="n">
+        <v>158168.67</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -751,6 +777,9 @@
       <c r="J9" t="n">
         <v>691585.4</v>
       </c>
+      <c r="K9" t="n">
+        <v>688994.9</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -785,6 +814,9 @@
       <c r="J10" t="n">
         <v>12849.45</v>
       </c>
+      <c r="K10" t="n">
+        <v>1523.41</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -819,6 +851,9 @@
       <c r="J11" t="n">
         <v>2997.6</v>
       </c>
+      <c r="K11" t="n">
+        <v>2996.88</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -853,6 +888,9 @@
       <c r="J12" t="n">
         <v>1988.22</v>
       </c>
+      <c r="K12" t="n">
+        <v>1958.41</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
@@ -887,6 +925,9 @@
       <c r="J13" t="n">
         <v>206809.94</v>
       </c>
+      <c r="K13" t="n">
+        <v>191264.6</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
@@ -921,6 +962,9 @@
       <c r="J14" t="n">
         <v>1110851.75</v>
       </c>
+      <c r="K14" t="n">
+        <v>1105383.47</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
@@ -954,6 +998,9 @@
       </c>
       <c r="J15" t="n">
         <v>17910.85</v>
+      </c>
+      <c r="K15" t="n">
+        <v>17907.26</v>
       </c>
     </row>
     <row r="16">
@@ -987,6 +1034,9 @@
       <c r="J16" t="n">
         <v>1048516.69</v>
       </c>
+      <c r="K16" t="n">
+        <v>1007460.03</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
@@ -1019,6 +1069,9 @@
       <c r="J17" t="n">
         <v>326358.59</v>
       </c>
+      <c r="K17" t="n">
+        <v>326362.89</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
@@ -1051,6 +1104,9 @@
       <c r="J18" t="n">
         <v>69184.69</v>
       </c>
+      <c r="K18" t="n">
+        <v>69310.11</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
@@ -1083,6 +1139,9 @@
       <c r="J19" t="n">
         <v>2495.06</v>
       </c>
+      <c r="K19" t="n">
+        <v>2501.3</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
@@ -1115,6 +1174,9 @@
       <c r="J20" t="n">
         <v>8188.93</v>
       </c>
+      <c r="K20" t="n">
+        <v>8197.219999999999</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
@@ -1147,6 +1209,9 @@
       <c r="J21" t="n">
         <v>22296.12</v>
       </c>
+      <c r="K21" t="n">
+        <v>22168.21</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
@@ -1179,6 +1244,9 @@
       <c r="J22" t="n">
         <v>355957.56</v>
       </c>
+      <c r="K22" t="n">
+        <v>356656.01</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
@@ -1211,6 +1279,9 @@
       <c r="J23" t="n">
         <v>86504.3</v>
       </c>
+      <c r="K23" t="n">
+        <v>86800.64</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
@@ -1243,6 +1314,9 @@
       <c r="J24" t="n">
         <v>262515.82</v>
       </c>
+      <c r="K24" t="n">
+        <v>254526.22</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
@@ -1275,6 +1349,9 @@
       <c r="J25" t="n">
         <v>245583.09</v>
       </c>
+      <c r="K25" t="n">
+        <v>245420.03</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
@@ -1307,6 +1384,9 @@
       <c r="J26" t="n">
         <v>234094.1</v>
       </c>
+      <c r="K26" t="n">
+        <v>234182.83</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
@@ -1341,6 +1421,9 @@
       <c r="J27" t="n">
         <v>237330.03</v>
       </c>
+      <c r="K27" t="n">
+        <v>236990.72</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
@@ -1375,6 +1458,9 @@
       <c r="J28" t="n">
         <v>1499868.97</v>
       </c>
+      <c r="K28" t="n">
+        <v>1499745.44</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
@@ -1409,6 +1495,9 @@
       <c r="J29" t="n">
         <v>39958.51</v>
       </c>
+      <c r="K29" t="n">
+        <v>40029.99</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
@@ -1443,6 +1532,9 @@
       <c r="J30" t="n">
         <v>5298.97</v>
       </c>
+      <c r="K30" t="n">
+        <v>5301.89</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
@@ -1477,6 +1569,9 @@
       <c r="J31" t="n">
         <v>123141.15</v>
       </c>
+      <c r="K31" t="n">
+        <v>117982.62</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
@@ -1511,6 +1606,9 @@
       <c r="J32" t="n">
         <v>215472.14</v>
       </c>
+      <c r="K32" t="n">
+        <v>215397.74</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
@@ -1545,6 +1643,9 @@
       <c r="J33" t="n">
         <v>69056.47</v>
       </c>
+      <c r="K33" t="n">
+        <v>69160.62</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
@@ -1579,6 +1680,9 @@
       <c r="J34" t="n">
         <v>4430.14</v>
       </c>
+      <c r="K34" t="n">
+        <v>4441.67</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
@@ -1613,6 +1717,9 @@
       <c r="J35" t="n">
         <v>30026.52</v>
       </c>
+      <c r="K35" t="n">
+        <v>30046.97</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
@@ -1647,6 +1754,9 @@
       <c r="J36" t="n">
         <v>79705.13</v>
       </c>
+      <c r="K36" t="n">
+        <v>79723.25999999999</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
@@ -1680,6 +1790,9 @@
       </c>
       <c r="J37" t="n">
         <v>32537.01</v>
+      </c>
+      <c r="K37" t="n">
+        <v>32482.99</v>
       </c>
     </row>
     <row r="38">
@@ -1713,6 +1826,9 @@
       <c r="J38" t="n">
         <v>84860.36</v>
       </c>
+      <c r="K38" t="n">
+        <v>85063.55</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
@@ -1747,6 +1863,9 @@
       <c r="J39" t="n">
         <v>202177.14</v>
       </c>
+      <c r="K39" t="n">
+        <v>202120.49</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
@@ -1781,6 +1900,9 @@
       <c r="J40" t="n">
         <v>88262.91</v>
       </c>
+      <c r="K40" t="n">
+        <v>80299.03999999999</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
@@ -1815,6 +1937,9 @@
       <c r="J41" t="n">
         <v>117041.93</v>
       </c>
+      <c r="K41" t="n">
+        <v>116879.83</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
@@ -1849,6 +1974,9 @@
       <c r="J42" t="n">
         <v>83807.59</v>
       </c>
+      <c r="K42" t="n">
+        <v>83804.84</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
@@ -1883,6 +2011,9 @@
       <c r="J43" t="n">
         <v>552388.28</v>
       </c>
+      <c r="K43" t="n">
+        <v>552993.48</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
@@ -1916,6 +2047,9 @@
       </c>
       <c r="J44" t="n">
         <v>1104253.59</v>
+      </c>
+      <c r="K44" t="n">
+        <v>1105328.35</v>
       </c>
     </row>
     <row r="45">
@@ -1939,6 +2073,7 @@
       <c r="H45" t="inlineStr"/>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
+      <c r="K45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
@@ -1973,6 +2108,9 @@
       <c r="J46" t="n">
         <v>16203.96</v>
       </c>
+      <c r="K46" t="n">
+        <v>17863.45</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
@@ -2006,6 +2144,9 @@
       </c>
       <c r="J47" t="n">
         <v>60644.45</v>
+      </c>
+      <c r="K47" t="n">
+        <v>60633.89</v>
       </c>
     </row>
     <row r="48">
@@ -2029,6 +2170,7 @@
       <c r="H48" t="inlineStr"/>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
+      <c r="K48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
@@ -2063,6 +2205,9 @@
       <c r="J49" t="n">
         <v>227414.56</v>
       </c>
+      <c r="K49" t="n">
+        <v>225629.46</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
@@ -2096,6 +2241,9 @@
       </c>
       <c r="J50" t="n">
         <v>10233655.17</v>
+      </c>
+      <c r="K50" t="n">
+        <v>10153325.48</v>
       </c>
     </row>
   </sheetData>

--- a/backend/src/excel_handler/files/LOMA.xlsx
+++ b/backend/src/excel_handler/files/LOMA.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K50"/>
+  <dimension ref="A1:L50"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,6 +484,11 @@
           <t>10-03-2023</t>
         </is>
       </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>17-03-2023</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -521,6 +526,9 @@
       <c r="K2" t="n">
         <v>98362.46000000001</v>
       </c>
+      <c r="L2" t="n">
+        <v>88665.96000000001</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -558,6 +566,9 @@
       <c r="K3" t="n">
         <v>361564.31</v>
       </c>
+      <c r="L3" t="n">
+        <v>361205.14</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -595,6 +606,9 @@
       <c r="K4" t="n">
         <v>49295.59</v>
       </c>
+      <c r="L4" t="n">
+        <v>49280.84</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -632,6 +646,9 @@
       <c r="K5" t="n">
         <v>65252.4</v>
       </c>
+      <c r="L5" t="n">
+        <v>65299.22</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -669,6 +686,9 @@
       <c r="K6" t="n">
         <v>160725.84</v>
       </c>
+      <c r="L6" t="n">
+        <v>160627.83</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -706,6 +726,9 @@
       <c r="K7" t="n">
         <v>50.96</v>
       </c>
+      <c r="L7" t="n">
+        <v>50.94</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -743,6 +766,9 @@
       <c r="K8" t="n">
         <v>158168.67</v>
       </c>
+      <c r="L8" t="n">
+        <v>158342.38</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -780,6 +806,9 @@
       <c r="K9" t="n">
         <v>688994.9</v>
       </c>
+      <c r="L9" t="n">
+        <v>679432.24</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -817,6 +846,9 @@
       <c r="K10" t="n">
         <v>1523.41</v>
       </c>
+      <c r="L10" t="n">
+        <v>1523.5</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -854,6 +886,9 @@
       <c r="K11" t="n">
         <v>2996.88</v>
       </c>
+      <c r="L11" t="n">
+        <v>2997.72</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -891,6 +926,9 @@
       <c r="K12" t="n">
         <v>1958.41</v>
       </c>
+      <c r="L12" t="n">
+        <v>1984.26</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
@@ -928,6 +966,9 @@
       <c r="K13" t="n">
         <v>191264.6</v>
       </c>
+      <c r="L13" t="n">
+        <v>153200.94</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
@@ -965,6 +1006,9 @@
       <c r="K14" t="n">
         <v>1105383.47</v>
       </c>
+      <c r="L14" t="n">
+        <v>1103583.42</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
@@ -1001,6 +1045,9 @@
       </c>
       <c r="K15" t="n">
         <v>17907.26</v>
+      </c>
+      <c r="L15" t="n">
+        <v>17914.5</v>
       </c>
     </row>
     <row r="16">
@@ -1037,6 +1084,9 @@
       <c r="K16" t="n">
         <v>1007460.03</v>
       </c>
+      <c r="L16" t="n">
+        <v>940428.62</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
@@ -1072,6 +1122,9 @@
       <c r="K17" t="n">
         <v>326362.89</v>
       </c>
+      <c r="L17" t="n">
+        <v>326284.59</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
@@ -1107,6 +1160,9 @@
       <c r="K18" t="n">
         <v>69310.11</v>
       </c>
+      <c r="L18" t="n">
+        <v>69202.77</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
@@ -1142,6 +1198,9 @@
       <c r="K19" t="n">
         <v>2501.3</v>
       </c>
+      <c r="L19" t="n">
+        <v>2502.84</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
@@ -1177,6 +1236,9 @@
       <c r="K20" t="n">
         <v>8197.219999999999</v>
       </c>
+      <c r="L20" t="n">
+        <v>8189.17</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
@@ -1212,6 +1274,9 @@
       <c r="K21" t="n">
         <v>22168.21</v>
       </c>
+      <c r="L21" t="n">
+        <v>22221.52</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
@@ -1247,6 +1312,9 @@
       <c r="K22" t="n">
         <v>356656.01</v>
       </c>
+      <c r="L22" t="n">
+        <v>356351.14</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
@@ -1282,6 +1350,9 @@
       <c r="K23" t="n">
         <v>86800.64</v>
       </c>
+      <c r="L23" t="n">
+        <v>86484.94</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
@@ -1317,6 +1388,9 @@
       <c r="K24" t="n">
         <v>254526.22</v>
       </c>
+      <c r="L24" t="n">
+        <v>254417.45</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
@@ -1352,6 +1426,9 @@
       <c r="K25" t="n">
         <v>245420.03</v>
       </c>
+      <c r="L25" t="n">
+        <v>240406.76</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
@@ -1387,6 +1464,9 @@
       <c r="K26" t="n">
         <v>234182.83</v>
       </c>
+      <c r="L26" t="n">
+        <v>231129.26</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
@@ -1424,6 +1504,9 @@
       <c r="K27" t="n">
         <v>236990.72</v>
       </c>
+      <c r="L27" t="n">
+        <v>231953.39</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
@@ -1461,6 +1544,9 @@
       <c r="K28" t="n">
         <v>1499745.44</v>
       </c>
+      <c r="L28" t="n">
+        <v>1498821.49</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
@@ -1498,6 +1584,9 @@
       <c r="K29" t="n">
         <v>40029.99</v>
       </c>
+      <c r="L29" t="n">
+        <v>40011.86</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
@@ -1535,6 +1624,9 @@
       <c r="K30" t="n">
         <v>5301.89</v>
       </c>
+      <c r="L30" t="n">
+        <v>5295.86</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
@@ -1572,6 +1664,9 @@
       <c r="K31" t="n">
         <v>117982.62</v>
       </c>
+      <c r="L31" t="n">
+        <v>117900.24</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
@@ -1609,6 +1704,9 @@
       <c r="K32" t="n">
         <v>215397.74</v>
       </c>
+      <c r="L32" t="n">
+        <v>191226.5</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
@@ -1646,6 +1744,9 @@
       <c r="K33" t="n">
         <v>69160.62</v>
       </c>
+      <c r="L33" t="n">
+        <v>68586.03</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
@@ -1683,6 +1784,9 @@
       <c r="K34" t="n">
         <v>4441.67</v>
       </c>
+      <c r="L34" t="n">
+        <v>4429.06</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
@@ -1720,6 +1824,9 @@
       <c r="K35" t="n">
         <v>30046.97</v>
       </c>
+      <c r="L35" t="n">
+        <v>30013.22</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
@@ -1757,6 +1864,9 @@
       <c r="K36" t="n">
         <v>79723.25999999999</v>
       </c>
+      <c r="L36" t="n">
+        <v>79748.44</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
@@ -1793,6 +1903,9 @@
       </c>
       <c r="K37" t="n">
         <v>32482.99</v>
+      </c>
+      <c r="L37" t="n">
+        <v>32500.58</v>
       </c>
     </row>
     <row r="38">
@@ -1829,6 +1942,9 @@
       <c r="K38" t="n">
         <v>85063.55</v>
       </c>
+      <c r="L38" t="n">
+        <v>85105.91</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
@@ -1866,6 +1982,9 @@
       <c r="K39" t="n">
         <v>202120.49</v>
       </c>
+      <c r="L39" t="n">
+        <v>202193.86</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
@@ -1903,6 +2022,9 @@
       <c r="K40" t="n">
         <v>80299.03999999999</v>
       </c>
+      <c r="L40" t="n">
+        <v>86257.33</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
@@ -1940,6 +2062,9 @@
       <c r="K41" t="n">
         <v>116879.83</v>
       </c>
+      <c r="L41" t="n">
+        <v>116875.96</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
@@ -1977,6 +2102,9 @@
       <c r="K42" t="n">
         <v>83804.84</v>
       </c>
+      <c r="L42" t="n">
+        <v>83804.23</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
@@ -2014,6 +2142,9 @@
       <c r="K43" t="n">
         <v>552993.48</v>
       </c>
+      <c r="L43" t="n">
+        <v>527895.72</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
@@ -2050,6 +2181,9 @@
       </c>
       <c r="K44" t="n">
         <v>1105328.35</v>
+      </c>
+      <c r="L44" t="n">
+        <v>1104538.96</v>
       </c>
     </row>
     <row r="45">
@@ -2074,6 +2208,7 @@
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr"/>
+      <c r="L45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
@@ -2111,6 +2246,9 @@
       <c r="K46" t="n">
         <v>17863.45</v>
       </c>
+      <c r="L46" t="n">
+        <v>17107.23</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
@@ -2147,6 +2285,9 @@
       </c>
       <c r="K47" t="n">
         <v>60633.89</v>
+      </c>
+      <c r="L47" t="n">
+        <v>60649.43</v>
       </c>
     </row>
     <row r="48">
@@ -2171,6 +2312,7 @@
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr"/>
+      <c r="L48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
@@ -2208,6 +2350,9 @@
       <c r="K49" t="n">
         <v>225629.46</v>
       </c>
+      <c r="L49" t="n">
+        <v>221480.96</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
@@ -2244,6 +2389,9 @@
       </c>
       <c r="K50" t="n">
         <v>10153325.48</v>
+      </c>
+      <c r="L50" t="n">
+        <v>9966643.25</v>
       </c>
     </row>
   </sheetData>

--- a/backend/src/excel_handler/files/LOMA.xlsx
+++ b/backend/src/excel_handler/files/LOMA.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L50"/>
+  <dimension ref="A1:M50"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -489,6 +489,11 @@
           <t>17-03-2023</t>
         </is>
       </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>23-03-2023</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -529,6 +534,9 @@
       <c r="L2" t="n">
         <v>88665.96000000001</v>
       </c>
+      <c r="M2" t="n">
+        <v>88766.95</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -569,6 +577,9 @@
       <c r="L3" t="n">
         <v>361205.14</v>
       </c>
+      <c r="M3" t="n">
+        <v>350386.23</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -609,6 +620,9 @@
       <c r="L4" t="n">
         <v>49280.84</v>
       </c>
+      <c r="M4" t="n">
+        <v>49283.63</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -649,6 +663,9 @@
       <c r="L5" t="n">
         <v>65299.22</v>
       </c>
+      <c r="M5" t="n">
+        <v>65306.32</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -689,6 +706,9 @@
       <c r="L6" t="n">
         <v>160627.83</v>
       </c>
+      <c r="M6" t="n">
+        <v>160451.44</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -729,6 +749,9 @@
       <c r="L7" t="n">
         <v>50.94</v>
       </c>
+      <c r="M7" t="n">
+        <v>50.6</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -769,6 +792,9 @@
       <c r="L8" t="n">
         <v>158342.38</v>
       </c>
+      <c r="M8" t="n">
+        <v>157919.09</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -809,6 +835,9 @@
       <c r="L9" t="n">
         <v>679432.24</v>
       </c>
+      <c r="M9" t="n">
+        <v>684530.74</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -849,6 +878,9 @@
       <c r="L10" t="n">
         <v>1523.5</v>
       </c>
+      <c r="M10" t="n">
+        <v>1521.64</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -889,6 +921,9 @@
       <c r="L11" t="n">
         <v>2997.72</v>
       </c>
+      <c r="M11" t="n">
+        <v>2994.49</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -929,6 +964,9 @@
       <c r="L12" t="n">
         <v>1984.26</v>
       </c>
+      <c r="M12" t="n">
+        <v>1976.05</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
@@ -969,6 +1007,9 @@
       <c r="L13" t="n">
         <v>153200.94</v>
       </c>
+      <c r="M13" t="n">
+        <v>152805.56</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
@@ -1009,6 +1050,9 @@
       <c r="L14" t="n">
         <v>1103583.42</v>
       </c>
+      <c r="M14" t="n">
+        <v>1104086.25</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
@@ -1048,6 +1092,9 @@
       </c>
       <c r="L15" t="n">
         <v>17914.5</v>
+      </c>
+      <c r="M15" t="n">
+        <v>17914.77</v>
       </c>
     </row>
     <row r="16">
@@ -1087,6 +1134,9 @@
       <c r="L16" t="n">
         <v>940428.62</v>
       </c>
+      <c r="M16" t="n">
+        <v>862163.34</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
@@ -1125,6 +1175,9 @@
       <c r="L17" t="n">
         <v>326284.59</v>
       </c>
+      <c r="M17" t="n">
+        <v>326285.27</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
@@ -1163,6 +1216,9 @@
       <c r="L18" t="n">
         <v>69202.77</v>
       </c>
+      <c r="M18" t="n">
+        <v>89251.8</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
@@ -1201,6 +1257,9 @@
       <c r="L19" t="n">
         <v>2502.84</v>
       </c>
+      <c r="M19" t="n">
+        <v>2499.59</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
@@ -1239,6 +1298,9 @@
       <c r="L20" t="n">
         <v>8189.17</v>
       </c>
+      <c r="M20" t="n">
+        <v>8187.54</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
@@ -1277,6 +1339,9 @@
       <c r="L21" t="n">
         <v>22221.52</v>
       </c>
+      <c r="M21" t="n">
+        <v>51140.15</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
@@ -1315,6 +1380,9 @@
       <c r="L22" t="n">
         <v>356351.14</v>
       </c>
+      <c r="M22" t="n">
+        <v>380281.8</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
@@ -1353,6 +1421,9 @@
       <c r="L23" t="n">
         <v>86484.94</v>
       </c>
+      <c r="M23" t="n">
+        <v>86979.92</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
@@ -1391,6 +1462,9 @@
       <c r="L24" t="n">
         <v>254417.45</v>
       </c>
+      <c r="M24" t="n">
+        <v>254712.54</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
@@ -1429,6 +1503,9 @@
       <c r="L25" t="n">
         <v>240406.76</v>
       </c>
+      <c r="M25" t="n">
+        <v>240315.39</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
@@ -1467,6 +1544,9 @@
       <c r="L26" t="n">
         <v>231129.26</v>
       </c>
+      <c r="M26" t="n">
+        <v>225749.32</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
@@ -1507,6 +1587,9 @@
       <c r="L27" t="n">
         <v>231953.39</v>
       </c>
+      <c r="M27" t="n">
+        <v>232357.23</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
@@ -1547,6 +1630,9 @@
       <c r="L28" t="n">
         <v>1498821.49</v>
       </c>
+      <c r="M28" t="n">
+        <v>1499194.09</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
@@ -1587,6 +1673,9 @@
       <c r="L29" t="n">
         <v>40011.86</v>
       </c>
+      <c r="M29" t="n">
+        <v>40027.86</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
@@ -1627,6 +1716,9 @@
       <c r="L30" t="n">
         <v>5295.86</v>
       </c>
+      <c r="M30" t="n">
+        <v>5304.51</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
@@ -1667,6 +1759,9 @@
       <c r="L31" t="n">
         <v>117900.24</v>
       </c>
+      <c r="M31" t="n">
+        <v>118035.71</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
@@ -1707,6 +1802,9 @@
       <c r="L32" t="n">
         <v>191226.5</v>
       </c>
+      <c r="M32" t="n">
+        <v>186117.43</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
@@ -1747,6 +1845,9 @@
       <c r="L33" t="n">
         <v>68586.03</v>
       </c>
+      <c r="M33" t="n">
+        <v>60413.67</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
@@ -1787,6 +1888,9 @@
       <c r="L34" t="n">
         <v>4429.06</v>
       </c>
+      <c r="M34" t="n">
+        <v>4439.87</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
@@ -1827,6 +1931,9 @@
       <c r="L35" t="n">
         <v>30013.22</v>
       </c>
+      <c r="M35" t="n">
+        <v>30045.65</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
@@ -1867,6 +1974,9 @@
       <c r="L36" t="n">
         <v>79748.44</v>
       </c>
+      <c r="M36" t="n">
+        <v>79725.00999999999</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
@@ -1906,6 +2016,9 @@
       </c>
       <c r="L37" t="n">
         <v>32500.58</v>
+      </c>
+      <c r="M37" t="n">
+        <v>32493.76</v>
       </c>
     </row>
     <row r="38">
@@ -1945,6 +2058,9 @@
       <c r="L38" t="n">
         <v>85105.91</v>
       </c>
+      <c r="M38" t="n">
+        <v>85111.58</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
@@ -1985,6 +2101,9 @@
       <c r="L39" t="n">
         <v>202193.86</v>
       </c>
+      <c r="M39" t="n">
+        <v>202300.94</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
@@ -2025,6 +2144,9 @@
       <c r="L40" t="n">
         <v>86257.33</v>
       </c>
+      <c r="M40" t="n">
+        <v>86414.69</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
@@ -2065,6 +2187,9 @@
       <c r="L41" t="n">
         <v>116875.96</v>
       </c>
+      <c r="M41" t="n">
+        <v>116933.27</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
@@ -2105,6 +2230,9 @@
       <c r="L42" t="n">
         <v>83804.23</v>
       </c>
+      <c r="M42" t="n">
+        <v>81305.96000000001</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
@@ -2145,6 +2273,9 @@
       <c r="L43" t="n">
         <v>527895.72</v>
       </c>
+      <c r="M43" t="n">
+        <v>527734.62</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
@@ -2184,6 +2315,9 @@
       </c>
       <c r="L44" t="n">
         <v>1104538.96</v>
+      </c>
+      <c r="M44" t="n">
+        <v>1065257.95</v>
       </c>
     </row>
     <row r="45">
@@ -2209,6 +2343,7 @@
       <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr"/>
       <c r="L45" t="inlineStr"/>
+      <c r="M45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
@@ -2249,6 +2384,9 @@
       <c r="L46" t="n">
         <v>17107.23</v>
       </c>
+      <c r="M46" t="n">
+        <v>16416.7</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
@@ -2288,6 +2426,9 @@
       </c>
       <c r="L47" t="n">
         <v>60649.43</v>
+      </c>
+      <c r="M47" t="n">
+        <v>60631.4</v>
       </c>
     </row>
     <row r="48">
@@ -2313,6 +2454,7 @@
       <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr"/>
       <c r="L48" t="inlineStr"/>
+      <c r="M48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
@@ -2353,6 +2495,9 @@
       <c r="L49" t="n">
         <v>221480.96</v>
       </c>
+      <c r="M49" t="n">
+        <v>219907.16</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
@@ -2392,6 +2537,9 @@
       </c>
       <c r="L50" t="n">
         <v>9966643.25</v>
+      </c>
+      <c r="M50" t="n">
+        <v>9895822.32</v>
       </c>
     </row>
   </sheetData>
